--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel05/field_36ha_100ha_10%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel05/field_36ha_100ha_10%_6m_0_LM/Planilha_Unificada.xlsx
@@ -4052,28 +4052,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2553.227372546675</v>
+        <v>2964.276935063745</v>
       </c>
       <c r="AB2" t="n">
-        <v>3493.438331560474</v>
+        <v>4055.854477223209</v>
       </c>
       <c r="AC2" t="n">
-        <v>3160.029480267703</v>
+        <v>3668.769418344384</v>
       </c>
       <c r="AD2" t="n">
-        <v>2553227.372546675</v>
+        <v>2964276.935063745</v>
       </c>
       <c r="AE2" t="n">
-        <v>3493438.331560474</v>
+        <v>4055854.477223209</v>
       </c>
       <c r="AF2" t="n">
         <v>1.919373512903879e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>82</v>
+        <v>81.77083333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>3160029.480267703</v>
+        <v>3668769.418344384</v>
       </c>
     </row>
     <row r="3">
@@ -4158,28 +4158,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1584.663463992798</v>
+        <v>1878.183451457983</v>
       </c>
       <c r="AB3" t="n">
-        <v>2168.206461852948</v>
+        <v>2569.813457890752</v>
       </c>
       <c r="AC3" t="n">
-        <v>1961.275880230584</v>
+        <v>2324.554068225499</v>
       </c>
       <c r="AD3" t="n">
-        <v>1584663.463992798</v>
+        <v>1878183.451457983</v>
       </c>
       <c r="AE3" t="n">
-        <v>2168206.461852948</v>
+        <v>2569813.457890753</v>
       </c>
       <c r="AF3" t="n">
         <v>2.698974920681496e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>59</v>
+        <v>58.14814814814815</v>
       </c>
       <c r="AH3" t="n">
-        <v>1961275.880230584</v>
+        <v>2324554.068225499</v>
       </c>
     </row>
     <row r="4">
@@ -4264,28 +4264,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1364.492861982111</v>
+        <v>1628.64728563625</v>
       </c>
       <c r="AB4" t="n">
-        <v>1866.959330940492</v>
+        <v>2228.387067054782</v>
       </c>
       <c r="AC4" t="n">
-        <v>1688.779352689408</v>
+        <v>2015.712932935964</v>
       </c>
       <c r="AD4" t="n">
-        <v>1364492.861982111</v>
+        <v>1628647.28563625</v>
       </c>
       <c r="AE4" t="n">
-        <v>1866959.330940492</v>
+        <v>2228387.067054782</v>
       </c>
       <c r="AF4" t="n">
         <v>3.005174256002745e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>53</v>
+        <v>52.22222222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>1688779.352689408</v>
+        <v>2015712.932935964</v>
       </c>
     </row>
     <row r="5">
@@ -4370,28 +4370,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1262.418650764737</v>
+        <v>1516.851872956233</v>
       </c>
       <c r="AB5" t="n">
-        <v>1727.296891956501</v>
+        <v>2075.423651360461</v>
       </c>
       <c r="AC5" t="n">
-        <v>1562.446100864586</v>
+        <v>1877.348130950008</v>
       </c>
       <c r="AD5" t="n">
-        <v>1262418.650764737</v>
+        <v>1516851.872956233</v>
       </c>
       <c r="AE5" t="n">
-        <v>1727296.891956501</v>
+        <v>2075423.651360461</v>
       </c>
       <c r="AF5" t="n">
         <v>3.167359554959439e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>50</v>
+        <v>49.54861111111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>1562446.100864586</v>
+        <v>1877348.130950008</v>
       </c>
     </row>
     <row r="6">
@@ -4476,28 +4476,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1197.658695828287</v>
+        <v>1442.303396749435</v>
       </c>
       <c r="AB6" t="n">
-        <v>1638.689464604877</v>
+        <v>1973.423137367666</v>
       </c>
       <c r="AC6" t="n">
-        <v>1482.295242018095</v>
+        <v>1785.082402854064</v>
       </c>
       <c r="AD6" t="n">
-        <v>1197658.695828287</v>
+        <v>1442303.396749435</v>
       </c>
       <c r="AE6" t="n">
-        <v>1638689.464604877</v>
+        <v>1973423.137367666</v>
       </c>
       <c r="AF6" t="n">
         <v>3.270691660147566e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>48</v>
+        <v>47.98611111111111</v>
       </c>
       <c r="AH6" t="n">
-        <v>1482295.242018095</v>
+        <v>1785082.402854064</v>
       </c>
     </row>
     <row r="7">
@@ -4582,28 +4582,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1154.130418870559</v>
+        <v>1398.740954372925</v>
       </c>
       <c r="AB7" t="n">
-        <v>1579.132155739263</v>
+        <v>1913.819081868804</v>
       </c>
       <c r="AC7" t="n">
-        <v>1428.421999121407</v>
+        <v>1731.166874757196</v>
       </c>
       <c r="AD7" t="n">
-        <v>1154130.418870558</v>
+        <v>1398740.954372925</v>
       </c>
       <c r="AE7" t="n">
-        <v>1579132.155739263</v>
+        <v>1913819.081868804</v>
       </c>
       <c r="AF7" t="n">
         <v>3.346360052135722e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>47</v>
+        <v>46.89814814814815</v>
       </c>
       <c r="AH7" t="n">
-        <v>1428421.999121408</v>
+        <v>1731166.874757196</v>
       </c>
     </row>
     <row r="8">
@@ -4688,28 +4688,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1136.230804111311</v>
+        <v>1371.019663954406</v>
       </c>
       <c r="AB8" t="n">
-        <v>1554.641113150391</v>
+        <v>1875.889589341167</v>
       </c>
       <c r="AC8" t="n">
-        <v>1406.268347263823</v>
+        <v>1696.857319762019</v>
       </c>
       <c r="AD8" t="n">
-        <v>1136230.804111311</v>
+        <v>1371019.663954406</v>
       </c>
       <c r="AE8" t="n">
-        <v>1554641.113150391</v>
+        <v>1875889.589341167</v>
       </c>
       <c r="AF8" t="n">
         <v>3.382431364445488e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>47</v>
+        <v>46.40046296296297</v>
       </c>
       <c r="AH8" t="n">
-        <v>1406268.347263823</v>
+        <v>1696857.319762019</v>
       </c>
     </row>
     <row r="9">
@@ -4794,28 +4794,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1104.100423529499</v>
+        <v>1338.956603180298</v>
       </c>
       <c r="AB9" t="n">
-        <v>1510.678908946006</v>
+        <v>1832.019495067623</v>
       </c>
       <c r="AC9" t="n">
-        <v>1366.501834127363</v>
+        <v>1657.174125713879</v>
       </c>
       <c r="AD9" t="n">
-        <v>1104100.423529499</v>
+        <v>1338956.603180298</v>
       </c>
       <c r="AE9" t="n">
-        <v>1510678.908946006</v>
+        <v>1832019.495067623</v>
       </c>
       <c r="AF9" t="n">
         <v>3.426503456553286e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>46</v>
+        <v>45.81018518518518</v>
       </c>
       <c r="AH9" t="n">
-        <v>1366501.834127363</v>
+        <v>1657174.125713879</v>
       </c>
     </row>
     <row r="10">
@@ -4900,28 +4900,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1085.68876366323</v>
+        <v>1310.723267654756</v>
       </c>
       <c r="AB10" t="n">
-        <v>1485.487263651869</v>
+        <v>1793.389399834722</v>
       </c>
       <c r="AC10" t="n">
-        <v>1343.714444103403</v>
+        <v>1622.230832552326</v>
       </c>
       <c r="AD10" t="n">
-        <v>1085688.76366323</v>
+        <v>1310723.267654757</v>
       </c>
       <c r="AE10" t="n">
-        <v>1485487.263651869</v>
+        <v>1793389.399834722</v>
       </c>
       <c r="AF10" t="n">
         <v>3.454709595502276e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>46</v>
+        <v>45.42824074074074</v>
       </c>
       <c r="AH10" t="n">
-        <v>1343714.444103403</v>
+        <v>1622230.832552326</v>
       </c>
     </row>
     <row r="11">
@@ -5006,28 +5006,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1066.655195730686</v>
+        <v>1291.689699722213</v>
       </c>
       <c r="AB11" t="n">
-        <v>1459.444696304809</v>
+        <v>1767.346832487661</v>
       </c>
       <c r="AC11" t="n">
-        <v>1320.157342832973</v>
+        <v>1598.673731281896</v>
       </c>
       <c r="AD11" t="n">
-        <v>1066655.195730686</v>
+        <v>1291689.699722213</v>
       </c>
       <c r="AE11" t="n">
-        <v>1459444.696304809</v>
+        <v>1767346.832487661</v>
       </c>
       <c r="AF11" t="n">
         <v>3.487255140443419e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>46</v>
+        <v>45.01157407407408</v>
       </c>
       <c r="AH11" t="n">
-        <v>1320157.342832973</v>
+        <v>1598673.731281896</v>
       </c>
     </row>
     <row r="12">
@@ -5112,28 +5112,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1039.035499982872</v>
+        <v>1264.137323782103</v>
       </c>
       <c r="AB12" t="n">
-        <v>1421.65421008767</v>
+        <v>1729.648456201364</v>
       </c>
       <c r="AC12" t="n">
-        <v>1285.973527581117</v>
+        <v>1564.57323511836</v>
       </c>
       <c r="AD12" t="n">
-        <v>1039035.499982872</v>
+        <v>1264137.323782103</v>
       </c>
       <c r="AE12" t="n">
-        <v>1421654.21008767</v>
+        <v>1729648.456201364</v>
       </c>
       <c r="AF12" t="n">
         <v>3.515596885829663e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>45</v>
+        <v>44.6412037037037</v>
       </c>
       <c r="AH12" t="n">
-        <v>1285973.527581117</v>
+        <v>1564573.23511836</v>
       </c>
     </row>
     <row r="13">
@@ -5218,28 +5218,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1027.555623188917</v>
+        <v>1252.657446988149</v>
       </c>
       <c r="AB13" t="n">
-        <v>1405.946936201761</v>
+        <v>1713.941182315455</v>
       </c>
       <c r="AC13" t="n">
-        <v>1271.765333869582</v>
+        <v>1550.365041406825</v>
       </c>
       <c r="AD13" t="n">
-        <v>1027555.623188917</v>
+        <v>1252657.446988149</v>
       </c>
       <c r="AE13" t="n">
-        <v>1405946.936201761</v>
+        <v>1713941.182315455</v>
       </c>
       <c r="AF13" t="n">
         <v>3.520749930445344e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>45</v>
+        <v>44.58333333333334</v>
       </c>
       <c r="AH13" t="n">
-        <v>1271765.333869583</v>
+        <v>1550365.041406825</v>
       </c>
     </row>
     <row r="14">
@@ -5324,28 +5324,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1019.872266513949</v>
+        <v>1244.97409031318</v>
       </c>
       <c r="AB14" t="n">
-        <v>1395.434228633296</v>
+        <v>1703.42847474699</v>
       </c>
       <c r="AC14" t="n">
-        <v>1262.255944356774</v>
+        <v>1540.855651894016</v>
       </c>
       <c r="AD14" t="n">
-        <v>1019872.266513949</v>
+        <v>1244974.09031318</v>
       </c>
       <c r="AE14" t="n">
-        <v>1395434.228633296</v>
+        <v>1703428.47474699</v>
       </c>
       <c r="AF14" t="n">
         <v>3.52576736862377e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>45</v>
+        <v>44.51388888888889</v>
       </c>
       <c r="AH14" t="n">
-        <v>1262255.944356774</v>
+        <v>1540855.651894016</v>
       </c>
     </row>
     <row r="15">
@@ -5430,28 +5430,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1021.893110910524</v>
+        <v>1246.994934709755</v>
       </c>
       <c r="AB15" t="n">
-        <v>1398.199237090052</v>
+        <v>1706.193483203746</v>
       </c>
       <c r="AC15" t="n">
-        <v>1264.757064287131</v>
+        <v>1543.356771824373</v>
       </c>
       <c r="AD15" t="n">
-        <v>1021893.110910524</v>
+        <v>1246994.934709755</v>
       </c>
       <c r="AE15" t="n">
-        <v>1398199.237090052</v>
+        <v>1706193.483203746</v>
       </c>
       <c r="AF15" t="n">
         <v>3.52603858149828e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>45</v>
+        <v>44.51388888888889</v>
       </c>
       <c r="AH15" t="n">
-        <v>1264757.064287131</v>
+        <v>1543356.771824373</v>
       </c>
     </row>
   </sheetData>
@@ -5727,28 +5727,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1982.000023653169</v>
+        <v>2340.010526143125</v>
       </c>
       <c r="AB2" t="n">
-        <v>2711.859872032127</v>
+        <v>3201.705635847732</v>
       </c>
       <c r="AC2" t="n">
-        <v>2453.043771964615</v>
+        <v>2896.139343584386</v>
       </c>
       <c r="AD2" t="n">
-        <v>1982000.023653169</v>
+        <v>2340010.526143125</v>
       </c>
       <c r="AE2" t="n">
-        <v>2711859.872032126</v>
+        <v>3201705.635847731</v>
       </c>
       <c r="AF2" t="n">
         <v>2.402988307021071e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>72</v>
+        <v>71.4699074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>2453043.771964615</v>
+        <v>2896139.343584386</v>
       </c>
     </row>
     <row r="3">
@@ -5833,28 +5833,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1345.051372747733</v>
+        <v>1615.971098305494</v>
       </c>
       <c r="AB3" t="n">
-        <v>1840.358627672044</v>
+        <v>2211.042948314924</v>
       </c>
       <c r="AC3" t="n">
-        <v>1664.71738320658</v>
+        <v>2000.024112546015</v>
       </c>
       <c r="AD3" t="n">
-        <v>1345051.372747733</v>
+        <v>1615971.098305494</v>
       </c>
       <c r="AE3" t="n">
-        <v>1840358.627672044</v>
+        <v>2211042.948314924</v>
       </c>
       <c r="AF3" t="n">
         <v>3.164021158315364e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>55</v>
+        <v>54.28240740740741</v>
       </c>
       <c r="AH3" t="n">
-        <v>1664717.38320658</v>
+        <v>2000024.112546016</v>
       </c>
     </row>
     <row r="4">
@@ -5939,28 +5939,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1184.278053802225</v>
+        <v>1435.904000867475</v>
       </c>
       <c r="AB4" t="n">
-        <v>1620.381479872554</v>
+        <v>1964.667201600547</v>
       </c>
       <c r="AC4" t="n">
-        <v>1465.734545653208</v>
+        <v>1777.162121307526</v>
       </c>
       <c r="AD4" t="n">
-        <v>1184278.053802225</v>
+        <v>1435904.000867475</v>
       </c>
       <c r="AE4" t="n">
-        <v>1620381.479872554</v>
+        <v>1964667.201600547</v>
       </c>
       <c r="AF4" t="n">
         <v>3.446533645908332e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>50</v>
+        <v>49.82638888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>1465734.545653208</v>
+        <v>1777162.121307526</v>
       </c>
     </row>
     <row r="5">
@@ -6045,28 +6045,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1106.987823152902</v>
+        <v>1348.933221068044</v>
       </c>
       <c r="AB5" t="n">
-        <v>1514.629576493827</v>
+        <v>1845.669943798954</v>
       </c>
       <c r="AC5" t="n">
-        <v>1370.075455509217</v>
+        <v>1669.521794776817</v>
       </c>
       <c r="AD5" t="n">
-        <v>1106987.823152902</v>
+        <v>1348933.221068044</v>
       </c>
       <c r="AE5" t="n">
-        <v>1514629.576493826</v>
+        <v>1845669.943798954</v>
       </c>
       <c r="AF5" t="n">
         <v>3.603814757698535e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>48</v>
+        <v>47.65046296296296</v>
       </c>
       <c r="AH5" t="n">
-        <v>1370075.455509217</v>
+        <v>1669521.794776817</v>
       </c>
     </row>
     <row r="6">
@@ -6151,28 +6151,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1060.238022617287</v>
+        <v>1292.435551574616</v>
       </c>
       <c r="AB6" t="n">
-        <v>1450.664436945359</v>
+        <v>1768.367339896781</v>
       </c>
       <c r="AC6" t="n">
-        <v>1312.215059103618</v>
+        <v>1599.596842896181</v>
       </c>
       <c r="AD6" t="n">
-        <v>1060238.022617287</v>
+        <v>1292435.551574616</v>
       </c>
       <c r="AE6" t="n">
-        <v>1450664.436945359</v>
+        <v>1768367.33989678</v>
       </c>
       <c r="AF6" t="n">
         <v>3.699667208846149e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>47</v>
+        <v>46.42361111111111</v>
       </c>
       <c r="AH6" t="n">
-        <v>1312215.059103618</v>
+        <v>1599596.84289618</v>
       </c>
     </row>
     <row r="7">
@@ -6257,28 +6257,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1025.722556787686</v>
+        <v>1257.98740555272</v>
       </c>
       <c r="AB7" t="n">
-        <v>1403.438853882415</v>
+        <v>1721.233866764677</v>
       </c>
       <c r="AC7" t="n">
-        <v>1269.496619406679</v>
+        <v>1556.961722287561</v>
       </c>
       <c r="AD7" t="n">
-        <v>1025722.556787686</v>
+        <v>1257987.40555272</v>
       </c>
       <c r="AE7" t="n">
-        <v>1403438.853882415</v>
+        <v>1721233.866764677</v>
       </c>
       <c r="AF7" t="n">
         <v>3.755457490009467e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>46</v>
+        <v>45.72916666666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>1269496.619406679</v>
+        <v>1556961.722287561</v>
       </c>
     </row>
     <row r="8">
@@ -6363,28 +6363,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1000.701506795781</v>
+        <v>1223.252652021783</v>
       </c>
       <c r="AB8" t="n">
-        <v>1369.20394943267</v>
+        <v>1673.708244594474</v>
       </c>
       <c r="AC8" t="n">
-        <v>1238.529046188628</v>
+        <v>1513.971878794652</v>
       </c>
       <c r="AD8" t="n">
-        <v>1000701.506795781</v>
+        <v>1223252.652021782</v>
       </c>
       <c r="AE8" t="n">
-        <v>1369203.94943267</v>
+        <v>1673708.244594474</v>
       </c>
       <c r="AF8" t="n">
         <v>3.804719121249417e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>46</v>
+        <v>45.13888888888889</v>
       </c>
       <c r="AH8" t="n">
-        <v>1238529.046188628</v>
+        <v>1513971.878794652</v>
       </c>
     </row>
     <row r="9">
@@ -6469,28 +6469,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>969.9832131779469</v>
+        <v>1192.601678211653</v>
       </c>
       <c r="AB9" t="n">
-        <v>1327.17382490928</v>
+        <v>1631.770230001925</v>
       </c>
       <c r="AC9" t="n">
-        <v>1200.5102177601</v>
+        <v>1476.036369454443</v>
       </c>
       <c r="AD9" t="n">
-        <v>969983.213177947</v>
+        <v>1192601.678211653</v>
       </c>
       <c r="AE9" t="n">
-        <v>1327173.82490928</v>
+        <v>1631770.230001925</v>
       </c>
       <c r="AF9" t="n">
         <v>3.842407236716126e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>45</v>
+        <v>44.69907407407408</v>
       </c>
       <c r="AH9" t="n">
-        <v>1200510.2177601</v>
+        <v>1476036.369454443</v>
       </c>
     </row>
     <row r="10">
@@ -6575,28 +6575,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>954.8483618306722</v>
+        <v>1177.365341637893</v>
       </c>
       <c r="AB10" t="n">
-        <v>1306.465653593421</v>
+        <v>1610.923202121978</v>
       </c>
       <c r="AC10" t="n">
-        <v>1181.778405250526</v>
+        <v>1457.17895265637</v>
       </c>
       <c r="AD10" t="n">
-        <v>954848.3618306721</v>
+        <v>1177365.341637893</v>
       </c>
       <c r="AE10" t="n">
-        <v>1306465.653593421</v>
+        <v>1610923.202121978</v>
       </c>
       <c r="AF10" t="n">
         <v>3.861696429671528e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>45</v>
+        <v>44.4675925925926</v>
       </c>
       <c r="AH10" t="n">
-        <v>1181778.405250526</v>
+        <v>1457178.95265637</v>
       </c>
     </row>
     <row r="11">
@@ -6681,28 +6681,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>957.1635467898934</v>
+        <v>1179.782011823599</v>
       </c>
       <c r="AB11" t="n">
-        <v>1309.63339179338</v>
+        <v>1614.229796886025</v>
       </c>
       <c r="AC11" t="n">
-        <v>1184.643818962629</v>
+        <v>1460.169970656971</v>
       </c>
       <c r="AD11" t="n">
-        <v>957163.5467898934</v>
+        <v>1179782.011823599</v>
       </c>
       <c r="AE11" t="n">
-        <v>1309633.39179338</v>
+        <v>1614229.796886025</v>
       </c>
       <c r="AF11" t="n">
         <v>3.855909671784907e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>45</v>
+        <v>44.53703703703704</v>
       </c>
       <c r="AH11" t="n">
-        <v>1184643.818962628</v>
+        <v>1460169.970656971</v>
       </c>
     </row>
   </sheetData>
@@ -6978,28 +6978,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1053.994269794407</v>
+        <v>1315.879427669188</v>
       </c>
       <c r="AB2" t="n">
-        <v>1442.12145887816</v>
+        <v>1800.444285440192</v>
       </c>
       <c r="AC2" t="n">
-        <v>1304.487410873008</v>
+        <v>1628.612409777205</v>
       </c>
       <c r="AD2" t="n">
-        <v>1053994.269794407</v>
+        <v>1315879.427669188</v>
       </c>
       <c r="AE2" t="n">
-        <v>1442121.45887816</v>
+        <v>1800444.285440192</v>
       </c>
       <c r="AF2" t="n">
         <v>4.476554866751227e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>54</v>
+        <v>53.54166666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1304487.410873008</v>
+        <v>1628612.409777205</v>
       </c>
     </row>
     <row r="3">
@@ -7084,28 +7084,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>849.1031597177106</v>
+        <v>1073.600556052366</v>
       </c>
       <c r="AB3" t="n">
-        <v>1161.7804029134</v>
+        <v>1468.947644704604</v>
       </c>
       <c r="AC3" t="n">
-        <v>1050.901711828381</v>
+        <v>1328.753343174964</v>
       </c>
       <c r="AD3" t="n">
-        <v>849103.1597177106</v>
+        <v>1073600.556052366</v>
       </c>
       <c r="AE3" t="n">
-        <v>1161780.4029134</v>
+        <v>1468947.644704604</v>
       </c>
       <c r="AF3" t="n">
         <v>5.135352971360788e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>47</v>
+        <v>46.67824074074074</v>
       </c>
       <c r="AH3" t="n">
-        <v>1050901.711828381</v>
+        <v>1328753.343174964</v>
       </c>
     </row>
     <row r="4">
@@ -7190,28 +7190,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>804.4592693682068</v>
+        <v>1019.533864155432</v>
       </c>
       <c r="AB4" t="n">
-        <v>1100.696662587771</v>
+        <v>1394.971211597114</v>
       </c>
       <c r="AC4" t="n">
-        <v>995.6477179478615</v>
+        <v>1261.837117016677</v>
       </c>
       <c r="AD4" t="n">
-        <v>804459.2693682068</v>
+        <v>1019533.864155432</v>
       </c>
       <c r="AE4" t="n">
-        <v>1100696.66258777</v>
+        <v>1394971.211597114</v>
       </c>
       <c r="AF4" t="n">
         <v>5.283639498522197e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>46</v>
+        <v>45.37037037037037</v>
       </c>
       <c r="AH4" t="n">
-        <v>995647.7179478614</v>
+        <v>1261837.117016677</v>
       </c>
     </row>
     <row r="5">
@@ -7296,28 +7296,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>807.3799280327028</v>
+        <v>1022.454522819927</v>
       </c>
       <c r="AB5" t="n">
-        <v>1104.6928366229</v>
+        <v>1398.967385632244</v>
       </c>
       <c r="AC5" t="n">
-        <v>999.2625027417439</v>
+        <v>1265.45190181056</v>
       </c>
       <c r="AD5" t="n">
-        <v>807379.9280327028</v>
+        <v>1022454.522819927</v>
       </c>
       <c r="AE5" t="n">
-        <v>1104692.8366229</v>
+        <v>1398967.385632244</v>
       </c>
       <c r="AF5" t="n">
         <v>5.283225290345769e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>46</v>
+        <v>45.37037037037037</v>
       </c>
       <c r="AH5" t="n">
-        <v>999262.5027417439</v>
+        <v>1265451.901810559</v>
       </c>
     </row>
   </sheetData>
@@ -7593,28 +7593,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1323.546226279713</v>
+        <v>1617.403404006216</v>
       </c>
       <c r="AB2" t="n">
-        <v>1810.934337534395</v>
+        <v>2213.00269216352</v>
       </c>
       <c r="AC2" t="n">
-        <v>1638.101306022418</v>
+        <v>2001.796821192219</v>
       </c>
       <c r="AD2" t="n">
-        <v>1323546.226279713</v>
+        <v>1617403.404006216</v>
       </c>
       <c r="AE2" t="n">
-        <v>1810934.337534395</v>
+        <v>2213002.69216352</v>
       </c>
       <c r="AF2" t="n">
         <v>3.521934838946164e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>59</v>
+        <v>58.93518518518519</v>
       </c>
       <c r="AH2" t="n">
-        <v>1638101.306022418</v>
+        <v>2001796.821192219</v>
       </c>
     </row>
     <row r="3">
@@ -7699,28 +7699,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1021.318685357864</v>
+        <v>1258.281453343351</v>
       </c>
       <c r="AB3" t="n">
-        <v>1397.413282707036</v>
+        <v>1721.636195924292</v>
       </c>
       <c r="AC3" t="n">
-        <v>1264.046120287336</v>
+        <v>1557.325653716854</v>
       </c>
       <c r="AD3" t="n">
-        <v>1021318.685357864</v>
+        <v>1258281.453343351</v>
       </c>
       <c r="AE3" t="n">
-        <v>1397413.282707036</v>
+        <v>1721636.195924292</v>
       </c>
       <c r="AF3" t="n">
         <v>4.224097842178543e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>50</v>
+        <v>49.14351851851853</v>
       </c>
       <c r="AH3" t="n">
-        <v>1264046.120287336</v>
+        <v>1557325.653716854</v>
       </c>
     </row>
     <row r="4">
@@ -7805,28 +7805,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>924.4597668647496</v>
+        <v>1151.905799302977</v>
       </c>
       <c r="AB4" t="n">
-        <v>1264.886637310855</v>
+        <v>1576.088333103609</v>
       </c>
       <c r="AC4" t="n">
-        <v>1144.167631925451</v>
+        <v>1425.668674646069</v>
       </c>
       <c r="AD4" t="n">
-        <v>924459.7668647496</v>
+        <v>1151905.799302977</v>
       </c>
       <c r="AE4" t="n">
-        <v>1264886.637310855</v>
+        <v>1576088.333103609</v>
       </c>
       <c r="AF4" t="n">
         <v>4.479495062255914e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>47</v>
+        <v>46.34259259259259</v>
       </c>
       <c r="AH4" t="n">
-        <v>1144167.631925451</v>
+        <v>1425668.674646069</v>
       </c>
     </row>
     <row r="5">
@@ -7911,28 +7911,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>877.8862447280737</v>
+        <v>1095.883872456603</v>
       </c>
       <c r="AB5" t="n">
-        <v>1201.16268964467</v>
+        <v>1499.436661279419</v>
       </c>
       <c r="AC5" t="n">
-        <v>1086.525408387405</v>
+        <v>1356.332530799481</v>
       </c>
       <c r="AD5" t="n">
-        <v>877886.2447280737</v>
+        <v>1095883.872456603</v>
       </c>
       <c r="AE5" t="n">
-        <v>1201162.68964467</v>
+        <v>1499436.661279419</v>
       </c>
       <c r="AF5" t="n">
         <v>4.589258474255459e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>46</v>
+        <v>45.23148148148147</v>
       </c>
       <c r="AH5" t="n">
-        <v>1086525.408387405</v>
+        <v>1356332.530799482</v>
       </c>
     </row>
     <row r="6">
@@ -8017,28 +8017,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>852.4111272385954</v>
+        <v>1070.476074774829</v>
       </c>
       <c r="AB6" t="n">
-        <v>1166.306510012702</v>
+        <v>1464.672591578292</v>
       </c>
       <c r="AC6" t="n">
-        <v>1054.995853618556</v>
+        <v>1324.886295118952</v>
       </c>
       <c r="AD6" t="n">
-        <v>852411.1272385954</v>
+        <v>1070476.074774829</v>
       </c>
       <c r="AE6" t="n">
-        <v>1166306.510012702</v>
+        <v>1464672.591578291</v>
       </c>
       <c r="AF6" t="n">
         <v>4.635531285196443e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>45</v>
+        <v>44.78009259259259</v>
       </c>
       <c r="AH6" t="n">
-        <v>1054995.853618556</v>
+        <v>1324886.295118952</v>
       </c>
     </row>
   </sheetData>
@@ -8314,28 +8314,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>879.4208914622967</v>
+        <v>1110.634651434022</v>
       </c>
       <c r="AB2" t="n">
-        <v>1203.26246101027</v>
+        <v>1519.619327834763</v>
       </c>
       <c r="AC2" t="n">
-        <v>1088.42478052092</v>
+        <v>1374.588991985335</v>
       </c>
       <c r="AD2" t="n">
-        <v>879420.8914622967</v>
+        <v>1110634.651434022</v>
       </c>
       <c r="AE2" t="n">
-        <v>1203262.46101027</v>
+        <v>1519619.327834763</v>
       </c>
       <c r="AF2" t="n">
         <v>5.487604179320739e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>51</v>
+        <v>50.03472222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>1088424.780520919</v>
+        <v>1374588.991985335</v>
       </c>
     </row>
     <row r="3">
@@ -8420,28 +8420,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>768.6212146675023</v>
+        <v>990.5154006104887</v>
       </c>
       <c r="AB3" t="n">
-        <v>1051.661455082879</v>
+        <v>1355.266869570663</v>
       </c>
       <c r="AC3" t="n">
-        <v>951.292361825891</v>
+        <v>1225.922101667837</v>
       </c>
       <c r="AD3" t="n">
-        <v>768621.2146675023</v>
+        <v>990515.4006104886</v>
       </c>
       <c r="AE3" t="n">
-        <v>1051661.455082879</v>
+        <v>1355266.869570663</v>
       </c>
       <c r="AF3" t="n">
         <v>5.940674291817609e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>47</v>
+        <v>46.21527777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>951292.3618258911</v>
+        <v>1225922.101667837</v>
       </c>
     </row>
   </sheetData>
@@ -8717,28 +8717,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2108.729515523919</v>
+        <v>2477.600475241777</v>
       </c>
       <c r="AB2" t="n">
-        <v>2885.256753720281</v>
+        <v>3389.96227424467</v>
       </c>
       <c r="AC2" t="n">
-        <v>2609.891898628503</v>
+        <v>3066.429032632564</v>
       </c>
       <c r="AD2" t="n">
-        <v>2108729.515523918</v>
+        <v>2477600.475241777</v>
       </c>
       <c r="AE2" t="n">
-        <v>2885256.753720281</v>
+        <v>3389962.27424467</v>
       </c>
       <c r="AF2" t="n">
         <v>2.268487011348427e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>74</v>
+        <v>73.87731481481482</v>
       </c>
       <c r="AH2" t="n">
-        <v>2609891.898628504</v>
+        <v>3066429.032632565</v>
       </c>
     </row>
     <row r="3">
@@ -8823,28 +8823,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1402.211465930616</v>
+        <v>1673.95998427128</v>
       </c>
       <c r="AB3" t="n">
-        <v>1918.567588890201</v>
+        <v>2290.385900382407</v>
       </c>
       <c r="AC3" t="n">
-        <v>1735.462190933043</v>
+        <v>2071.79468462671</v>
       </c>
       <c r="AD3" t="n">
-        <v>1402211.465930616</v>
+        <v>1673959.98427128</v>
       </c>
       <c r="AE3" t="n">
-        <v>1918567.588890201</v>
+        <v>2290385.900382407</v>
       </c>
       <c r="AF3" t="n">
         <v>3.037777334402884e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>56</v>
+        <v>55.16203703703704</v>
       </c>
       <c r="AH3" t="n">
-        <v>1735462.190933043</v>
+        <v>2071794.68462671</v>
       </c>
     </row>
     <row r="4">
@@ -8929,28 +8929,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1229.133190777169</v>
+        <v>1481.429686301399</v>
       </c>
       <c r="AB4" t="n">
-        <v>1681.754257150654</v>
+        <v>2026.957452862734</v>
       </c>
       <c r="AC4" t="n">
-        <v>1521.24999120512</v>
+        <v>1833.507478414166</v>
       </c>
       <c r="AD4" t="n">
-        <v>1229133.190777169</v>
+        <v>1481429.686301399</v>
       </c>
       <c r="AE4" t="n">
-        <v>1681754.257150654</v>
+        <v>2026957.452862734</v>
       </c>
       <c r="AF4" t="n">
         <v>3.329826756876222e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>51</v>
+        <v>50.32407407407408</v>
       </c>
       <c r="AH4" t="n">
-        <v>1521249.99120512</v>
+        <v>1833507.478414166</v>
       </c>
     </row>
     <row r="5">
@@ -9035,28 +9035,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1150.200439025077</v>
+        <v>1383.147407989214</v>
       </c>
       <c r="AB5" t="n">
-        <v>1573.7549839362</v>
+        <v>1892.483303767897</v>
       </c>
       <c r="AC5" t="n">
-        <v>1423.558017048321</v>
+        <v>1711.867353373288</v>
       </c>
       <c r="AD5" t="n">
-        <v>1150200.439025077</v>
+        <v>1383147.407989214</v>
       </c>
       <c r="AE5" t="n">
-        <v>1573754.9839362</v>
+        <v>1892483.303767897</v>
       </c>
       <c r="AF5" t="n">
         <v>3.483453151147026e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>49</v>
+        <v>48.11342592592592</v>
       </c>
       <c r="AH5" t="n">
-        <v>1423558.017048321</v>
+        <v>1711867.353373288</v>
       </c>
     </row>
     <row r="6">
@@ -9141,28 +9141,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1093.123158194964</v>
+        <v>1326.103281548026</v>
       </c>
       <c r="AB6" t="n">
-        <v>1495.659330232527</v>
+        <v>1814.433013361818</v>
       </c>
       <c r="AC6" t="n">
-        <v>1352.915702926188</v>
+        <v>1641.266073139293</v>
       </c>
       <c r="AD6" t="n">
-        <v>1093123.158194964</v>
+        <v>1326103.281548026</v>
       </c>
       <c r="AE6" t="n">
-        <v>1495659.330232527</v>
+        <v>1814433.013361818</v>
       </c>
       <c r="AF6" t="n">
         <v>3.579161960395848e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>47</v>
+        <v>46.8287037037037</v>
       </c>
       <c r="AH6" t="n">
-        <v>1352915.702926188</v>
+        <v>1641266.073139293</v>
       </c>
     </row>
     <row r="7">
@@ -9247,28 +9247,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1069.903236621642</v>
+        <v>1293.141276886954</v>
       </c>
       <c r="AB7" t="n">
-        <v>1463.888809145266</v>
+        <v>1769.332944403524</v>
       </c>
       <c r="AC7" t="n">
-        <v>1324.177315781289</v>
+        <v>1600.470291464035</v>
       </c>
       <c r="AD7" t="n">
-        <v>1069903.236621642</v>
+        <v>1293141.276886954</v>
       </c>
       <c r="AE7" t="n">
-        <v>1463888.809145266</v>
+        <v>1769332.944403524</v>
       </c>
       <c r="AF7" t="n">
         <v>3.630274229177746e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>47</v>
+        <v>46.15740740740741</v>
       </c>
       <c r="AH7" t="n">
-        <v>1324177.315781289</v>
+        <v>1600470.291464035</v>
       </c>
     </row>
     <row r="8">
@@ -9353,28 +9353,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1032.574567464853</v>
+        <v>1255.778442311384</v>
       </c>
       <c r="AB8" t="n">
-        <v>1412.814077180291</v>
+        <v>1718.211465805301</v>
       </c>
       <c r="AC8" t="n">
-        <v>1277.977084551214</v>
+        <v>1554.227775033781</v>
       </c>
       <c r="AD8" t="n">
-        <v>1032574.567464853</v>
+        <v>1255778.442311384</v>
       </c>
       <c r="AE8" t="n">
-        <v>1412814.077180291</v>
+        <v>1718211.465805301</v>
       </c>
       <c r="AF8" t="n">
         <v>3.690508517600606e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>46</v>
+        <v>45.40509259259259</v>
       </c>
       <c r="AH8" t="n">
-        <v>1277977.084551214</v>
+        <v>1554227.775033781</v>
       </c>
     </row>
     <row r="9">
@@ -9459,28 +9459,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1002.551393935523</v>
+        <v>1235.463186451023</v>
       </c>
       <c r="AB9" t="n">
-        <v>1371.735046628526</v>
+        <v>1690.415236491322</v>
       </c>
       <c r="AC9" t="n">
-        <v>1240.818579020529</v>
+        <v>1529.084378833275</v>
       </c>
       <c r="AD9" t="n">
-        <v>1002551.393935523</v>
+        <v>1235463.186451023</v>
       </c>
       <c r="AE9" t="n">
-        <v>1371735.046628526</v>
+        <v>1690415.236491322</v>
       </c>
       <c r="AF9" t="n">
         <v>3.726417420314234e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>45</v>
+        <v>44.97685185185185</v>
       </c>
       <c r="AH9" t="n">
-        <v>1240818.579020529</v>
+        <v>1529084.378833275</v>
       </c>
     </row>
     <row r="10">
@@ -9565,28 +9565,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>980.8273578717187</v>
+        <v>1204.098552525954</v>
       </c>
       <c r="AB10" t="n">
-        <v>1342.011262089198</v>
+        <v>1647.50076064505</v>
       </c>
       <c r="AC10" t="n">
-        <v>1213.93159076004</v>
+        <v>1490.265600330926</v>
       </c>
       <c r="AD10" t="n">
-        <v>980827.3578717187</v>
+        <v>1204098.552525954</v>
       </c>
       <c r="AE10" t="n">
-        <v>1342011.262089198</v>
+        <v>1647500.76064505</v>
       </c>
       <c r="AF10" t="n">
         <v>3.759285649814208e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>45</v>
+        <v>44.58333333333334</v>
       </c>
       <c r="AH10" t="n">
-        <v>1213931.59076004</v>
+        <v>1490265.600330926</v>
       </c>
     </row>
     <row r="11">
@@ -9671,28 +9671,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>967.2136037629575</v>
+        <v>1190.383313190707</v>
       </c>
       <c r="AB11" t="n">
-        <v>1323.384323121147</v>
+        <v>1628.73496511291</v>
       </c>
       <c r="AC11" t="n">
-        <v>1197.082380704027</v>
+        <v>1473.290785986414</v>
       </c>
       <c r="AD11" t="n">
-        <v>967213.6037629575</v>
+        <v>1190383.313190707</v>
       </c>
       <c r="AE11" t="n">
-        <v>1323384.323121147</v>
+        <v>1628734.96511291</v>
       </c>
       <c r="AF11" t="n">
         <v>3.778832834759126e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>45</v>
+        <v>44.35185185185185</v>
       </c>
       <c r="AH11" t="n">
-        <v>1197082.380704027</v>
+        <v>1473290.785986414</v>
       </c>
     </row>
     <row r="12">
@@ -9777,28 +9777,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>973.8558908072717</v>
+        <v>1197.127085461507</v>
       </c>
       <c r="AB12" t="n">
-        <v>1332.472593292201</v>
+        <v>1637.962091848053</v>
       </c>
       <c r="AC12" t="n">
-        <v>1205.303279125423</v>
+        <v>1481.637288696308</v>
       </c>
       <c r="AD12" t="n">
-        <v>973855.8908072717</v>
+        <v>1197127.085461507</v>
       </c>
       <c r="AE12" t="n">
-        <v>1332472.593292201</v>
+        <v>1637962.091848053</v>
       </c>
       <c r="AF12" t="n">
         <v>3.765511790204071e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>45</v>
+        <v>44.50231481481482</v>
       </c>
       <c r="AH12" t="n">
-        <v>1205303.279125423</v>
+        <v>1481637.288696308</v>
       </c>
     </row>
   </sheetData>
@@ -10074,28 +10074,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>781.8503385727793</v>
+        <v>1002.331459480159</v>
       </c>
       <c r="AB2" t="n">
-        <v>1069.762126037835</v>
+        <v>1371.434122603873</v>
       </c>
       <c r="AC2" t="n">
-        <v>967.6655301493574</v>
+        <v>1240.546374762439</v>
       </c>
       <c r="AD2" t="n">
-        <v>781850.3385727793</v>
+        <v>1002331.459480159</v>
       </c>
       <c r="AE2" t="n">
-        <v>1069762.126037835</v>
+        <v>1371434.122603873</v>
       </c>
       <c r="AF2" t="n">
         <v>6.237006790498949e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>49</v>
+        <v>48.15972222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>967665.5301493574</v>
+        <v>1240546.374762439</v>
       </c>
     </row>
     <row r="3">
@@ -10180,28 +10180,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>754.4626228600387</v>
+        <v>974.9095783486375</v>
       </c>
       <c r="AB3" t="n">
-        <v>1032.289045138921</v>
+        <v>1333.914295071711</v>
       </c>
       <c r="AC3" t="n">
-        <v>933.7688274976362</v>
+        <v>1206.607386910538</v>
       </c>
       <c r="AD3" t="n">
-        <v>754462.6228600387</v>
+        <v>974909.5783486376</v>
       </c>
       <c r="AE3" t="n">
-        <v>1032289.045138921</v>
+        <v>1333914.295071711</v>
       </c>
       <c r="AF3" t="n">
         <v>6.38676762770735e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>48</v>
+        <v>47.03703703703704</v>
       </c>
       <c r="AH3" t="n">
-        <v>933768.8274976362</v>
+        <v>1206607.386910538</v>
       </c>
     </row>
   </sheetData>
@@ -10477,28 +10477,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1628.633799055428</v>
+        <v>1954.538391441249</v>
       </c>
       <c r="AB2" t="n">
-        <v>2228.368614119915</v>
+        <v>2674.285655318069</v>
       </c>
       <c r="AC2" t="n">
-        <v>2015.696241123301</v>
+        <v>2419.055585758003</v>
       </c>
       <c r="AD2" t="n">
-        <v>1628633.799055428</v>
+        <v>1954538.391441249</v>
       </c>
       <c r="AE2" t="n">
-        <v>2228368.614119914</v>
+        <v>2674285.655318069</v>
       </c>
       <c r="AF2" t="n">
         <v>2.878164277771692e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>65</v>
+        <v>64.88425925925927</v>
       </c>
       <c r="AH2" t="n">
-        <v>2015696.241123301</v>
+        <v>2419055.585758003</v>
       </c>
     </row>
     <row r="3">
@@ -10583,28 +10583,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1177.901308377177</v>
+        <v>1436.720959696628</v>
       </c>
       <c r="AB3" t="n">
-        <v>1611.65653545985</v>
+        <v>1965.785000712274</v>
       </c>
       <c r="AC3" t="n">
-        <v>1457.842297689715</v>
+        <v>1778.173239240871</v>
       </c>
       <c r="AD3" t="n">
-        <v>1177901.308377177</v>
+        <v>1436720.959696628</v>
       </c>
       <c r="AE3" t="n">
-        <v>1611656.53545985</v>
+        <v>1965785.000712274</v>
       </c>
       <c r="AF3" t="n">
         <v>3.61452515919722e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>52</v>
+        <v>51.66666666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>1457842.297689715</v>
+        <v>1778173.239240871</v>
       </c>
     </row>
     <row r="4">
@@ -10689,28 +10689,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1060.418354074804</v>
+        <v>1290.473685073333</v>
       </c>
       <c r="AB4" t="n">
-        <v>1450.911174401196</v>
+        <v>1765.683027598283</v>
       </c>
       <c r="AC4" t="n">
-        <v>1312.438248282968</v>
+        <v>1597.168717595996</v>
       </c>
       <c r="AD4" t="n">
-        <v>1060418.354074804</v>
+        <v>1290473.685073333</v>
       </c>
       <c r="AE4" t="n">
-        <v>1450911.174401196</v>
+        <v>1765683.027598283</v>
       </c>
       <c r="AF4" t="n">
         <v>3.88767567897229e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>49</v>
+        <v>48.03240740740741</v>
       </c>
       <c r="AH4" t="n">
-        <v>1312438.248282968</v>
+        <v>1597168.717595996</v>
       </c>
     </row>
     <row r="5">
@@ -10795,28 +10795,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>994.2699398951411</v>
+        <v>1224.256940056108</v>
       </c>
       <c r="AB5" t="n">
-        <v>1360.403995858508</v>
+        <v>1675.0823557891</v>
       </c>
       <c r="AC5" t="n">
-        <v>1230.568947832772</v>
+        <v>1515.21484674544</v>
       </c>
       <c r="AD5" t="n">
-        <v>994269.9398951411</v>
+        <v>1224256.940056108</v>
       </c>
       <c r="AE5" t="n">
-        <v>1360403.995858508</v>
+        <v>1675082.3557891</v>
       </c>
       <c r="AF5" t="n">
         <v>4.031269277672711e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>47</v>
+        <v>46.31944444444445</v>
       </c>
       <c r="AH5" t="n">
-        <v>1230568.947832772</v>
+        <v>1515214.84674544</v>
       </c>
     </row>
     <row r="6">
@@ -10901,28 +10901,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>954.5206392441066</v>
+        <v>1174.953361040261</v>
       </c>
       <c r="AB6" t="n">
-        <v>1306.017249092382</v>
+        <v>1607.623023859224</v>
       </c>
       <c r="AC6" t="n">
-        <v>1181.372795845726</v>
+        <v>1454.193738775184</v>
       </c>
       <c r="AD6" t="n">
-        <v>954520.6392441066</v>
+        <v>1174953.361040261</v>
       </c>
       <c r="AE6" t="n">
-        <v>1306017.249092382</v>
+        <v>1607623.023859224</v>
       </c>
       <c r="AF6" t="n">
         <v>4.106615581709898e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>46</v>
+        <v>45.47453703703704</v>
       </c>
       <c r="AH6" t="n">
-        <v>1181372.795845726</v>
+        <v>1454193.738775184</v>
       </c>
     </row>
     <row r="7">
@@ -11007,28 +11007,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>912.5606045518297</v>
+        <v>1133.060646155689</v>
       </c>
       <c r="AB7" t="n">
-        <v>1248.605678480326</v>
+        <v>1550.303563178009</v>
       </c>
       <c r="AC7" t="n">
-        <v>1129.440504955239</v>
+        <v>1402.344766973016</v>
       </c>
       <c r="AD7" t="n">
-        <v>912560.6045518296</v>
+        <v>1133060.646155689</v>
       </c>
       <c r="AE7" t="n">
-        <v>1248605.678480326</v>
+        <v>1550303.563178009</v>
       </c>
       <c r="AF7" t="n">
         <v>4.178735063304379e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>45</v>
+        <v>44.6875</v>
       </c>
       <c r="AH7" t="n">
-        <v>1129440.504955239</v>
+        <v>1402344.766973016</v>
       </c>
     </row>
     <row r="8">
@@ -11113,28 +11113,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>904.8489154987517</v>
+        <v>1125.348957102611</v>
       </c>
       <c r="AB8" t="n">
-        <v>1238.054205302195</v>
+        <v>1539.752089999878</v>
       </c>
       <c r="AC8" t="n">
-        <v>1119.896049568143</v>
+        <v>1392.80031158592</v>
       </c>
       <c r="AD8" t="n">
-        <v>904848.9154987517</v>
+        <v>1125348.957102611</v>
       </c>
       <c r="AE8" t="n">
-        <v>1238054.205302194</v>
+        <v>1539752.089999878</v>
       </c>
       <c r="AF8" t="n">
         <v>4.19277174093015e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>45</v>
+        <v>44.53703703703704</v>
       </c>
       <c r="AH8" t="n">
-        <v>1119896.049568143</v>
+        <v>1392800.31158592</v>
       </c>
     </row>
     <row r="9">
@@ -11219,28 +11219,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>907.3379129580268</v>
+        <v>1127.837954561886</v>
       </c>
       <c r="AB9" t="n">
-        <v>1241.459761432793</v>
+        <v>1543.157646130477</v>
       </c>
       <c r="AC9" t="n">
-        <v>1122.976584201365</v>
+        <v>1395.880846219143</v>
       </c>
       <c r="AD9" t="n">
-        <v>907337.9129580267</v>
+        <v>1127837.954561886</v>
       </c>
       <c r="AE9" t="n">
-        <v>1241459.761432793</v>
+        <v>1543157.646130477</v>
       </c>
       <c r="AF9" t="n">
         <v>4.191481011953068e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>45</v>
+        <v>44.54861111111111</v>
       </c>
       <c r="AH9" t="n">
-        <v>1122976.584201365</v>
+        <v>1395880.846219142</v>
       </c>
     </row>
   </sheetData>
@@ -11516,28 +11516,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1863.585413997858</v>
+        <v>2201.272093941424</v>
       </c>
       <c r="AB2" t="n">
-        <v>2549.83977901785</v>
+        <v>3011.877592201702</v>
       </c>
       <c r="AC2" t="n">
-        <v>2306.486649230992</v>
+        <v>2724.428221998608</v>
       </c>
       <c r="AD2" t="n">
-        <v>1863585.413997858</v>
+        <v>2201272.093941424</v>
       </c>
       <c r="AE2" t="n">
-        <v>2549839.77901785</v>
+        <v>3011877.592201702</v>
       </c>
       <c r="AF2" t="n">
         <v>2.546014757017143e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>70</v>
+        <v>69.22453703703704</v>
       </c>
       <c r="AH2" t="n">
-        <v>2306486.649230992</v>
+        <v>2724428.221998608</v>
       </c>
     </row>
     <row r="3">
@@ -11622,28 +11622,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1286.393738850588</v>
+        <v>1546.871695326711</v>
       </c>
       <c r="AB3" t="n">
-        <v>1760.1006651818</v>
+        <v>2116.498096708844</v>
       </c>
       <c r="AC3" t="n">
-        <v>1592.119128013647</v>
+        <v>1914.502488882687</v>
       </c>
       <c r="AD3" t="n">
-        <v>1286393.738850588</v>
+        <v>1546871.695326712</v>
       </c>
       <c r="AE3" t="n">
-        <v>1760100.6651818</v>
+        <v>2116498.096708844</v>
       </c>
       <c r="AF3" t="n">
         <v>3.306712430859746e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>54</v>
+        <v>53.31018518518519</v>
       </c>
       <c r="AH3" t="n">
-        <v>1592119.128013647</v>
+        <v>1914502.488882687</v>
       </c>
     </row>
     <row r="4">
@@ -11728,28 +11728,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1145.027678518839</v>
+        <v>1386.203454128102</v>
       </c>
       <c r="AB4" t="n">
-        <v>1566.677384805478</v>
+        <v>1896.664720918363</v>
       </c>
       <c r="AC4" t="n">
-        <v>1417.155894045162</v>
+        <v>1715.649701939569</v>
       </c>
       <c r="AD4" t="n">
-        <v>1145027.678518839</v>
+        <v>1386203.454128102</v>
       </c>
       <c r="AE4" t="n">
-        <v>1566677.384805478</v>
+        <v>1896664.720918363</v>
       </c>
       <c r="AF4" t="n">
         <v>3.584340430742642e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>50</v>
+        <v>49.17824074074074</v>
       </c>
       <c r="AH4" t="n">
-        <v>1417155.894045162</v>
+        <v>1715649.701939569</v>
       </c>
     </row>
     <row r="5">
@@ -11834,28 +11834,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1073.707051255926</v>
+        <v>1305.231736431759</v>
       </c>
       <c r="AB5" t="n">
-        <v>1469.09335614035</v>
+        <v>1785.875644546157</v>
       </c>
       <c r="AC5" t="n">
-        <v>1328.88514811579</v>
+        <v>1615.434179522881</v>
       </c>
       <c r="AD5" t="n">
-        <v>1073707.051255926</v>
+        <v>1305231.736431759</v>
       </c>
       <c r="AE5" t="n">
-        <v>1469093.35614035</v>
+        <v>1785875.644546157</v>
       </c>
       <c r="AF5" t="n">
         <v>3.730692876100548e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>48</v>
+        <v>47.24537037037037</v>
       </c>
       <c r="AH5" t="n">
-        <v>1328885.14811579</v>
+        <v>1615434.179522881</v>
       </c>
     </row>
     <row r="6">
@@ -11940,28 +11940,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1015.227903432273</v>
+        <v>1246.78574299703</v>
       </c>
       <c r="AB6" t="n">
-        <v>1389.079606170108</v>
+        <v>1705.907257873509</v>
       </c>
       <c r="AC6" t="n">
-        <v>1256.507798142704</v>
+        <v>1543.097863437934</v>
       </c>
       <c r="AD6" t="n">
-        <v>1015227.903432273</v>
+        <v>1246785.74299703</v>
       </c>
       <c r="AE6" t="n">
-        <v>1389079.606170109</v>
+        <v>1705907.257873509</v>
       </c>
       <c r="AF6" t="n">
         <v>3.836840279237343e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>46</v>
+        <v>45.9375</v>
       </c>
       <c r="AH6" t="n">
-        <v>1256507.798142704</v>
+        <v>1543097.863437934</v>
       </c>
     </row>
     <row r="7">
@@ -12046,28 +12046,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>991.8613380071637</v>
+        <v>1213.734932749567</v>
       </c>
       <c r="AB7" t="n">
-        <v>1357.108440495362</v>
+        <v>1660.68568119409</v>
       </c>
       <c r="AC7" t="n">
-        <v>1227.587915648143</v>
+        <v>1502.192170567917</v>
       </c>
       <c r="AD7" t="n">
-        <v>991861.3380071637</v>
+        <v>1213734.932749567</v>
       </c>
       <c r="AE7" t="n">
-        <v>1357108.440495362</v>
+        <v>1660685.68119409</v>
       </c>
       <c r="AF7" t="n">
         <v>3.886487414707351e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>46</v>
+        <v>45.34722222222222</v>
       </c>
       <c r="AH7" t="n">
-        <v>1227587.915648143</v>
+        <v>1502192.170567917</v>
       </c>
     </row>
     <row r="8">
@@ -12152,28 +12152,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>958.8610372786396</v>
+        <v>1180.801951828748</v>
       </c>
       <c r="AB8" t="n">
-        <v>1311.955973168077</v>
+        <v>1615.625323797646</v>
       </c>
       <c r="AC8" t="n">
-        <v>1186.744736430688</v>
+        <v>1461.432310438782</v>
       </c>
       <c r="AD8" t="n">
-        <v>958861.0372786396</v>
+        <v>1180801.951828748</v>
       </c>
       <c r="AE8" t="n">
-        <v>1311955.973168077</v>
+        <v>1615625.323797646</v>
       </c>
       <c r="AF8" t="n">
         <v>3.928824542500794e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>45</v>
+        <v>44.86111111111111</v>
       </c>
       <c r="AH8" t="n">
-        <v>1186744.736430688</v>
+        <v>1461432.310438782</v>
       </c>
     </row>
     <row r="9">
@@ -12258,28 +12258,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>938.6463937669704</v>
+        <v>1160.485823090593</v>
       </c>
       <c r="AB9" t="n">
-        <v>1284.29740610828</v>
+        <v>1587.82790017376</v>
       </c>
       <c r="AC9" t="n">
-        <v>1161.725864192035</v>
+        <v>1436.28783391163</v>
       </c>
       <c r="AD9" t="n">
-        <v>938646.3937669704</v>
+        <v>1160485.823090593</v>
       </c>
       <c r="AE9" t="n">
-        <v>1284297.40610828</v>
+        <v>1587827.90017376</v>
       </c>
       <c r="AF9" t="n">
         <v>3.962481036178314e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>45</v>
+        <v>44.47916666666666</v>
       </c>
       <c r="AH9" t="n">
-        <v>1161725.864192036</v>
+        <v>1436287.83391163</v>
       </c>
     </row>
     <row r="10">
@@ -12364,28 +12364,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>939.1954463900905</v>
+        <v>1161.034875713713</v>
       </c>
       <c r="AB10" t="n">
-        <v>1285.048644129725</v>
+        <v>1588.579138195205</v>
       </c>
       <c r="AC10" t="n">
-        <v>1162.405405111083</v>
+        <v>1436.967374830678</v>
       </c>
       <c r="AD10" t="n">
-        <v>939195.4463900905</v>
+        <v>1161034.875713713</v>
       </c>
       <c r="AE10" t="n">
-        <v>1285048.644129725</v>
+        <v>1588579.138195205</v>
       </c>
       <c r="AF10" t="n">
         <v>3.962328744351719e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>45</v>
+        <v>44.47916666666666</v>
       </c>
       <c r="AH10" t="n">
-        <v>1162405.405111083</v>
+        <v>1436967.374830678</v>
       </c>
     </row>
   </sheetData>
@@ -12661,28 +12661,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2404.118794917024</v>
+        <v>2794.530708761386</v>
       </c>
       <c r="AB2" t="n">
-        <v>3289.421397441395</v>
+        <v>3823.60020172133</v>
       </c>
       <c r="AC2" t="n">
-        <v>2975.483636001391</v>
+        <v>3458.68116492549</v>
       </c>
       <c r="AD2" t="n">
-        <v>2404118.794917024</v>
+        <v>2794530.708761387</v>
       </c>
       <c r="AE2" t="n">
-        <v>3289421.397441395</v>
+        <v>3823600.20172133</v>
       </c>
       <c r="AF2" t="n">
         <v>2.027335434782284e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>80</v>
+        <v>79.03935185185186</v>
       </c>
       <c r="AH2" t="n">
-        <v>2975483.636001391</v>
+        <v>3458681.16492549</v>
       </c>
     </row>
     <row r="3">
@@ -12767,28 +12767,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1522.409281602201</v>
+        <v>1805.43001070208</v>
       </c>
       <c r="AB3" t="n">
-        <v>2083.027543045441</v>
+        <v>2470.268990593246</v>
       </c>
       <c r="AC3" t="n">
-        <v>1884.226317884702</v>
+        <v>2234.50998517533</v>
       </c>
       <c r="AD3" t="n">
-        <v>1522409.281602201</v>
+        <v>1805430.01070208</v>
       </c>
       <c r="AE3" t="n">
-        <v>2083027.543045441</v>
+        <v>2470268.990593246</v>
       </c>
       <c r="AF3" t="n">
         <v>2.805099056238639e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>58</v>
+        <v>57.11805555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>1884226.317884702</v>
+        <v>2234509.98517533</v>
       </c>
     </row>
     <row r="4">
@@ -12873,28 +12873,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1317.161155165759</v>
+        <v>1580.689368701019</v>
       </c>
       <c r="AB4" t="n">
-        <v>1802.198001546826</v>
+        <v>2162.768929350026</v>
       </c>
       <c r="AC4" t="n">
-        <v>1630.198753679978</v>
+        <v>1956.357298198116</v>
       </c>
       <c r="AD4" t="n">
-        <v>1317161.155165759</v>
+        <v>1580689.36870102</v>
       </c>
       <c r="AE4" t="n">
-        <v>1802198.001546826</v>
+        <v>2162768.929350026</v>
       </c>
       <c r="AF4" t="n">
         <v>3.102748003574197e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>52</v>
+        <v>51.64351851851851</v>
       </c>
       <c r="AH4" t="n">
-        <v>1630198.753679978</v>
+        <v>1956357.298198116</v>
       </c>
     </row>
     <row r="5">
@@ -12979,28 +12979,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1228.458016774195</v>
+        <v>1472.427405966989</v>
       </c>
       <c r="AB5" t="n">
-        <v>1680.83045429321</v>
+        <v>2014.640135756616</v>
       </c>
       <c r="AC5" t="n">
-        <v>1520.414354795824</v>
+        <v>1822.365708765193</v>
       </c>
       <c r="AD5" t="n">
-        <v>1228458.016774195</v>
+        <v>1472427.405966989</v>
       </c>
       <c r="AE5" t="n">
-        <v>1680830.45429321</v>
+        <v>2014640.135756616</v>
       </c>
       <c r="AF5" t="n">
         <v>3.26389375924796e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>50</v>
+        <v>49.09722222222223</v>
       </c>
       <c r="AH5" t="n">
-        <v>1520414.354795824</v>
+        <v>1822365.708765193</v>
       </c>
     </row>
     <row r="6">
@@ -13085,28 +13085,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1167.280872765023</v>
+        <v>1411.283416346741</v>
       </c>
       <c r="AB6" t="n">
-        <v>1597.12518691475</v>
+        <v>1930.980231675749</v>
       </c>
       <c r="AC6" t="n">
-        <v>1444.697800654883</v>
+        <v>1746.690188512391</v>
       </c>
       <c r="AD6" t="n">
-        <v>1167280.872765023</v>
+        <v>1411283.416346741</v>
       </c>
       <c r="AE6" t="n">
-        <v>1597125.186914749</v>
+        <v>1930980.231675749</v>
       </c>
       <c r="AF6" t="n">
         <v>3.364125311746074e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>48</v>
+        <v>47.62731481481482</v>
       </c>
       <c r="AH6" t="n">
-        <v>1444697.800654883</v>
+        <v>1746690.188512391</v>
       </c>
     </row>
     <row r="7">
@@ -13191,28 +13191,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1116.155323879306</v>
+        <v>1350.327712676549</v>
       </c>
       <c r="AB7" t="n">
-        <v>1527.17295542928</v>
+        <v>1847.577948738339</v>
       </c>
       <c r="AC7" t="n">
-        <v>1381.421711963814</v>
+        <v>1671.247702402689</v>
       </c>
       <c r="AD7" t="n">
-        <v>1116155.323879306</v>
+        <v>1350327.712676549</v>
       </c>
       <c r="AE7" t="n">
-        <v>1527172.95542928</v>
+        <v>1847577.948738339</v>
       </c>
       <c r="AF7" t="n">
         <v>3.458403885297476e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>47</v>
+        <v>46.33101851851853</v>
       </c>
       <c r="AH7" t="n">
-        <v>1381421.711963814</v>
+        <v>1671247.702402689</v>
       </c>
     </row>
     <row r="8">
@@ -13297,28 +13297,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1092.940557747819</v>
+        <v>1327.180266352766</v>
       </c>
       <c r="AB8" t="n">
-        <v>1495.40948824498</v>
+        <v>1815.906591484879</v>
       </c>
       <c r="AC8" t="n">
-        <v>1352.689705507277</v>
+        <v>1642.59901503447</v>
       </c>
       <c r="AD8" t="n">
-        <v>1092940.557747819</v>
+        <v>1327180.266352766</v>
       </c>
       <c r="AE8" t="n">
-        <v>1495409.48824498</v>
+        <v>1815906.591484879</v>
       </c>
       <c r="AF8" t="n">
         <v>3.483600214792858e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>46</v>
+        <v>45.99537037037037</v>
       </c>
       <c r="AH8" t="n">
-        <v>1352689.705507277</v>
+        <v>1642599.01503447</v>
       </c>
     </row>
     <row r="9">
@@ -13403,28 +13403,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1073.234954210979</v>
+        <v>1297.780158676717</v>
       </c>
       <c r="AB9" t="n">
-        <v>1468.447412136003</v>
+        <v>1775.680067121298</v>
       </c>
       <c r="AC9" t="n">
-        <v>1328.300852100629</v>
+        <v>1606.211653697868</v>
       </c>
       <c r="AD9" t="n">
-        <v>1073234.954210979</v>
+        <v>1297780.158676716</v>
       </c>
       <c r="AE9" t="n">
-        <v>1468447.412136003</v>
+        <v>1775680.067121299</v>
       </c>
       <c r="AF9" t="n">
         <v>3.519594971214832e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>46</v>
+        <v>45.52083333333334</v>
       </c>
       <c r="AH9" t="n">
-        <v>1328300.852100629</v>
+        <v>1606211.653697868</v>
       </c>
     </row>
     <row r="10">
@@ -13509,28 +13509,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1055.570905944326</v>
+        <v>1280.014625183578</v>
       </c>
       <c r="AB10" t="n">
-        <v>1444.278682014758</v>
+        <v>1751.372480435964</v>
       </c>
       <c r="AC10" t="n">
-        <v>1306.43875166113</v>
+        <v>1584.223948969869</v>
       </c>
       <c r="AD10" t="n">
-        <v>1055570.905944326</v>
+        <v>1280014.625183578</v>
       </c>
       <c r="AE10" t="n">
-        <v>1444278.682014758</v>
+        <v>1751372.480435964</v>
       </c>
       <c r="AF10" t="n">
         <v>3.55019051417351e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>46</v>
+        <v>45.13888888888889</v>
       </c>
       <c r="AH10" t="n">
-        <v>1306438.75166113</v>
+        <v>1584223.948969869</v>
       </c>
     </row>
     <row r="11">
@@ -13615,28 +13615,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1027.193182082391</v>
+        <v>1251.704221129348</v>
       </c>
       <c r="AB11" t="n">
-        <v>1405.451028290039</v>
+        <v>1712.636936642087</v>
       </c>
       <c r="AC11" t="n">
-        <v>1271.316754712944</v>
+        <v>1549.185271110003</v>
       </c>
       <c r="AD11" t="n">
-        <v>1027193.182082391</v>
+        <v>1251704.221129348</v>
       </c>
       <c r="AE11" t="n">
-        <v>1405451.028290039</v>
+        <v>1712636.936642087</v>
       </c>
       <c r="AF11" t="n">
         <v>3.5756637264106e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>45</v>
+        <v>44.81481481481482</v>
       </c>
       <c r="AH11" t="n">
-        <v>1271316.754712944</v>
+        <v>1549185.271110003</v>
       </c>
     </row>
     <row r="12">
@@ -13721,28 +13721,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1014.825438055034</v>
+        <v>1239.336477101991</v>
       </c>
       <c r="AB12" t="n">
-        <v>1388.52893528545</v>
+        <v>1695.714843637498</v>
       </c>
       <c r="AC12" t="n">
-        <v>1256.009682514407</v>
+        <v>1533.878198911465</v>
       </c>
       <c r="AD12" t="n">
-        <v>1014825.438055034</v>
+        <v>1239336.47710199</v>
       </c>
       <c r="AE12" t="n">
-        <v>1388528.93528545</v>
+        <v>1695714.843637498</v>
       </c>
       <c r="AF12" t="n">
         <v>3.58563150511207e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>45</v>
+        <v>44.6875</v>
       </c>
       <c r="AH12" t="n">
-        <v>1256009.682514407</v>
+        <v>1533878.198911465</v>
       </c>
     </row>
     <row r="13">
@@ -13827,28 +13827,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1004.478789045843</v>
+        <v>1228.9898280928</v>
       </c>
       <c r="AB13" t="n">
-        <v>1374.372193649137</v>
+        <v>1681.558102001185</v>
       </c>
       <c r="AC13" t="n">
-        <v>1243.204040430752</v>
+        <v>1521.07255682781</v>
       </c>
       <c r="AD13" t="n">
-        <v>1004478.789045843</v>
+        <v>1228989.8280928</v>
       </c>
       <c r="AE13" t="n">
-        <v>1374372.193649137</v>
+        <v>1681558.102001185</v>
       </c>
       <c r="AF13" t="n">
         <v>3.600721614535129e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>45</v>
+        <v>44.50231481481482</v>
       </c>
       <c r="AH13" t="n">
-        <v>1243204.040430752</v>
+        <v>1521072.55682781</v>
       </c>
     </row>
     <row r="14">
@@ -13933,28 +13933,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1006.958433149648</v>
+        <v>1231.469472196605</v>
       </c>
       <c r="AB14" t="n">
-        <v>1377.76495210614</v>
+        <v>1684.950860458188</v>
       </c>
       <c r="AC14" t="n">
-        <v>1246.272998782385</v>
+        <v>1524.141515179444</v>
       </c>
       <c r="AD14" t="n">
-        <v>1006958.433149648</v>
+        <v>1231469.472196605</v>
       </c>
       <c r="AE14" t="n">
-        <v>1377764.95210614</v>
+        <v>1684950.860458188</v>
       </c>
       <c r="AF14" t="n">
         <v>3.60044473179342e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>45</v>
+        <v>44.50231481481482</v>
       </c>
       <c r="AH14" t="n">
-        <v>1246272.998782385</v>
+        <v>1524141.515179444</v>
       </c>
     </row>
   </sheetData>
@@ -14230,28 +14230,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1421.824412305353</v>
+        <v>1726.353659703605</v>
       </c>
       <c r="AB2" t="n">
-        <v>1945.402887382243</v>
+        <v>2362.073238554739</v>
       </c>
       <c r="AC2" t="n">
-        <v>1759.736366200582</v>
+        <v>2136.640283857686</v>
       </c>
       <c r="AD2" t="n">
-        <v>1421824.412305353</v>
+        <v>1726353.659703605</v>
       </c>
       <c r="AE2" t="n">
-        <v>1945402.887382243</v>
+        <v>2362073.238554739</v>
       </c>
       <c r="AF2" t="n">
         <v>3.282444334787944e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>61</v>
+        <v>60.85648148148149</v>
       </c>
       <c r="AH2" t="n">
-        <v>1759736.366200582</v>
+        <v>2136640.283857686</v>
       </c>
     </row>
     <row r="3">
@@ -14336,28 +14336,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1065.783718790533</v>
+        <v>1313.22867967233</v>
       </c>
       <c r="AB3" t="n">
-        <v>1458.252303108443</v>
+        <v>1796.817415088142</v>
       </c>
       <c r="AC3" t="n">
-        <v>1319.078749969734</v>
+        <v>1625.33168284121</v>
       </c>
       <c r="AD3" t="n">
-        <v>1065783.718790533</v>
+        <v>1313228.67967233</v>
       </c>
       <c r="AE3" t="n">
-        <v>1458252.303108443</v>
+        <v>1796817.415088142</v>
       </c>
       <c r="AF3" t="n">
         <v>4.001789620417901e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>50</v>
+        <v>49.91898148148149</v>
       </c>
       <c r="AH3" t="n">
-        <v>1319078.749969734</v>
+        <v>1625331.68284121</v>
       </c>
     </row>
     <row r="4">
@@ -14442,28 +14442,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>964.4972300065482</v>
+        <v>1202.388283480357</v>
       </c>
       <c r="AB4" t="n">
-        <v>1319.667660709676</v>
+        <v>1645.16069508512</v>
       </c>
       <c r="AC4" t="n">
-        <v>1193.720431336738</v>
+        <v>1488.148867343733</v>
       </c>
       <c r="AD4" t="n">
-        <v>964497.2300065482</v>
+        <v>1202388.283480357</v>
       </c>
       <c r="AE4" t="n">
-        <v>1319667.660709676</v>
+        <v>1645160.69508512</v>
       </c>
       <c r="AF4" t="n">
         <v>4.260498493536736e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>47</v>
+        <v>46.88657407407408</v>
       </c>
       <c r="AH4" t="n">
-        <v>1193720.431336738</v>
+        <v>1488148.867343733</v>
       </c>
     </row>
     <row r="5">
@@ -14548,28 +14548,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>908.5706571679847</v>
+        <v>1127.423237693239</v>
       </c>
       <c r="AB5" t="n">
-        <v>1243.146456445693</v>
+        <v>1542.590212214776</v>
       </c>
       <c r="AC5" t="n">
-        <v>1124.502303409525</v>
+        <v>1395.367567399958</v>
       </c>
       <c r="AD5" t="n">
-        <v>908570.6571679846</v>
+        <v>1127423.237693239</v>
       </c>
       <c r="AE5" t="n">
-        <v>1243146.456445693</v>
+        <v>1542590.212214776</v>
       </c>
       <c r="AF5" t="n">
         <v>4.410131977855635e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>46</v>
+        <v>45.30092592592592</v>
       </c>
       <c r="AH5" t="n">
-        <v>1124502.303409525</v>
+        <v>1395367.567399958</v>
       </c>
     </row>
     <row r="6">
@@ -14654,28 +14654,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>872.0446017279444</v>
+        <v>1090.964502060903</v>
       </c>
       <c r="AB6" t="n">
-        <v>1193.169895976792</v>
+        <v>1492.705761676717</v>
       </c>
       <c r="AC6" t="n">
-        <v>1079.295435729234</v>
+        <v>1350.244018807985</v>
       </c>
       <c r="AD6" t="n">
-        <v>872044.6017279443</v>
+        <v>1090964.502060903</v>
       </c>
       <c r="AE6" t="n">
-        <v>1193169.895976792</v>
+        <v>1492705.761676717</v>
       </c>
       <c r="AF6" t="n">
         <v>4.468984363268259e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>45</v>
+        <v>44.69907407407408</v>
       </c>
       <c r="AH6" t="n">
-        <v>1079295.435729234</v>
+        <v>1350244.018807985</v>
       </c>
     </row>
     <row r="7">
@@ -14760,28 +14760,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>872.576722236352</v>
+        <v>1091.496622569311</v>
       </c>
       <c r="AB7" t="n">
-        <v>1193.897966731896</v>
+        <v>1493.43383243182</v>
       </c>
       <c r="AC7" t="n">
-        <v>1079.954020433323</v>
+        <v>1350.902603512075</v>
       </c>
       <c r="AD7" t="n">
-        <v>872576.722236352</v>
+        <v>1091496.622569311</v>
       </c>
       <c r="AE7" t="n">
-        <v>1193897.966731896</v>
+        <v>1493433.83243182</v>
       </c>
       <c r="AF7" t="n">
         <v>4.467603662144209e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>45</v>
+        <v>44.71064814814815</v>
       </c>
       <c r="AH7" t="n">
-        <v>1079954.020433323</v>
+        <v>1350902.603512075</v>
       </c>
     </row>
   </sheetData>
@@ -15057,28 +15057,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1145.397310792198</v>
+        <v>1408.521959887824</v>
       </c>
       <c r="AB2" t="n">
-        <v>1567.183131988914</v>
+        <v>1927.201885121798</v>
       </c>
       <c r="AC2" t="n">
-        <v>1417.613373427231</v>
+        <v>1743.272442050607</v>
       </c>
       <c r="AD2" t="n">
-        <v>1145397.310792198</v>
+        <v>1408521.959887824</v>
       </c>
       <c r="AE2" t="n">
-        <v>1567183.131988914</v>
+        <v>1927201.885121798</v>
       </c>
       <c r="AF2" t="n">
         <v>4.106603723673067e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>56</v>
+        <v>55.3125</v>
       </c>
       <c r="AH2" t="n">
-        <v>1417613.373427231</v>
+        <v>1743272.442050607</v>
       </c>
     </row>
     <row r="3">
@@ -15163,28 +15163,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>908.5502328563209</v>
+        <v>1143.50523623493</v>
       </c>
       <c r="AB3" t="n">
-        <v>1243.118511001418</v>
+        <v>1564.59431210722</v>
       </c>
       <c r="AC3" t="n">
-        <v>1124.47702503923</v>
+        <v>1415.271626881615</v>
       </c>
       <c r="AD3" t="n">
-        <v>908550.2328563209</v>
+        <v>1143505.23623493</v>
       </c>
       <c r="AE3" t="n">
-        <v>1243118.511001418</v>
+        <v>1564594.31210722</v>
       </c>
       <c r="AF3" t="n">
         <v>4.779524691295878e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>48</v>
+        <v>47.52314814814815</v>
       </c>
       <c r="AH3" t="n">
-        <v>1124477.02503923</v>
+        <v>1415271.626881615</v>
       </c>
     </row>
     <row r="4">
@@ -15269,28 +15269,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>829.8443456947875</v>
+        <v>1045.964327947179</v>
       </c>
       <c r="AB4" t="n">
-        <v>1135.429643928326</v>
+        <v>1431.134538186751</v>
       </c>
       <c r="AC4" t="n">
-        <v>1027.06583229732</v>
+        <v>1294.549066472147</v>
       </c>
       <c r="AD4" t="n">
-        <v>829844.3456947876</v>
+        <v>1045964.327947179</v>
       </c>
       <c r="AE4" t="n">
-        <v>1135429.643928326</v>
+        <v>1431134.538186751</v>
       </c>
       <c r="AF4" t="n">
         <v>5.020904915902485e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>46</v>
+        <v>45.24305555555556</v>
       </c>
       <c r="AH4" t="n">
-        <v>1027065.83229732</v>
+        <v>1294549.066472147</v>
       </c>
     </row>
     <row r="5">
@@ -15375,28 +15375,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>827.1658995983943</v>
+        <v>1043.285881850786</v>
       </c>
       <c r="AB5" t="n">
-        <v>1131.764875814539</v>
+        <v>1427.469770072963</v>
       </c>
       <c r="AC5" t="n">
-        <v>1023.750824508778</v>
+        <v>1291.234058683604</v>
       </c>
       <c r="AD5" t="n">
-        <v>827165.8995983943</v>
+        <v>1043285.881850786</v>
       </c>
       <c r="AE5" t="n">
-        <v>1131764.875814539</v>
+        <v>1427469.770072964</v>
       </c>
       <c r="AF5" t="n">
         <v>5.026203506198728e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>46</v>
+        <v>45.18518518518518</v>
       </c>
       <c r="AH5" t="n">
-        <v>1023750.824508778</v>
+        <v>1291234.058683604</v>
       </c>
     </row>
   </sheetData>
@@ -28093,28 +28093,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>963.1172244831868</v>
+        <v>1214.310013922237</v>
       </c>
       <c r="AB2" t="n">
-        <v>1317.779476271066</v>
+        <v>1661.472532625327</v>
       </c>
       <c r="AC2" t="n">
-        <v>1192.012452570865</v>
+        <v>1502.903926002911</v>
       </c>
       <c r="AD2" t="n">
-        <v>963117.2244831867</v>
+        <v>1214310.013922237</v>
       </c>
       <c r="AE2" t="n">
-        <v>1317779.476271066</v>
+        <v>1661472.532625327</v>
       </c>
       <c r="AF2" t="n">
         <v>4.92198098056322e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>52</v>
+        <v>51.8287037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>1192012.452570865</v>
+        <v>1502903.926002911</v>
       </c>
     </row>
     <row r="3">
@@ -28199,28 +28199,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>788.4031412793672</v>
+        <v>1011.678028465461</v>
       </c>
       <c r="AB3" t="n">
-        <v>1078.727959790241</v>
+        <v>1384.222510631085</v>
       </c>
       <c r="AC3" t="n">
-        <v>975.7756773120603</v>
+        <v>1252.11425698495</v>
       </c>
       <c r="AD3" t="n">
-        <v>788403.1412793673</v>
+        <v>1011678.028465461</v>
       </c>
       <c r="AE3" t="n">
-        <v>1078727.959790241</v>
+        <v>1384222.510631085</v>
       </c>
       <c r="AF3" t="n">
         <v>5.558468737329735e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>46</v>
+        <v>45.8912037037037</v>
       </c>
       <c r="AH3" t="n">
-        <v>975775.6773120604</v>
+        <v>1252114.25698495</v>
       </c>
     </row>
     <row r="4">
@@ -28305,28 +28305,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>784.4727050435476</v>
+        <v>1007.747592229641</v>
       </c>
       <c r="AB4" t="n">
-        <v>1073.350163533784</v>
+        <v>1378.844714374628</v>
       </c>
       <c r="AC4" t="n">
-        <v>970.911130382535</v>
+        <v>1247.249710055424</v>
       </c>
       <c r="AD4" t="n">
-        <v>784472.7050435477</v>
+        <v>1007747.592229641</v>
       </c>
       <c r="AE4" t="n">
-        <v>1073350.163533784</v>
+        <v>1378844.714374628</v>
       </c>
       <c r="AF4" t="n">
         <v>5.579185444094296e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>46</v>
+        <v>45.71759259259259</v>
       </c>
       <c r="AH4" t="n">
-        <v>970911.130382535</v>
+        <v>1247249.710055424</v>
       </c>
     </row>
   </sheetData>
@@ -28602,28 +28602,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>732.7262380977279</v>
+        <v>960.6349589836708</v>
       </c>
       <c r="AB2" t="n">
-        <v>1002.548364565511</v>
+        <v>1314.383131104803</v>
       </c>
       <c r="AC2" t="n">
-        <v>906.8665557368446</v>
+        <v>1188.940249820471</v>
       </c>
       <c r="AD2" t="n">
-        <v>732726.2380977279</v>
+        <v>960634.9589836708</v>
       </c>
       <c r="AE2" t="n">
-        <v>1002548.364565511</v>
+        <v>1314383.131104803</v>
       </c>
       <c r="AF2" t="n">
         <v>6.952540643708681e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>49</v>
+        <v>48.51851851851853</v>
       </c>
       <c r="AH2" t="n">
-        <v>906866.5557368445</v>
+        <v>1188940.249820471</v>
       </c>
     </row>
   </sheetData>
@@ -28899,28 +28899,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1737.121265095727</v>
+        <v>2073.734000566987</v>
       </c>
       <c r="AB2" t="n">
-        <v>2376.805951285466</v>
+        <v>2837.374346263049</v>
       </c>
       <c r="AC2" t="n">
-        <v>2149.966927162884</v>
+        <v>2566.57932093561</v>
       </c>
       <c r="AD2" t="n">
-        <v>1737121.265095728</v>
+        <v>2073734.000566987</v>
       </c>
       <c r="AE2" t="n">
-        <v>2376805.951285466</v>
+        <v>2837374.346263049</v>
       </c>
       <c r="AF2" t="n">
         <v>2.706650530048524e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>67</v>
+        <v>66.95601851851852</v>
       </c>
       <c r="AH2" t="n">
-        <v>2149966.927162884</v>
+        <v>2566579.32093561</v>
       </c>
     </row>
     <row r="3">
@@ -29005,28 +29005,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1232.377111818938</v>
+        <v>1491.993211363536</v>
       </c>
       <c r="AB3" t="n">
-        <v>1686.192733031699</v>
+        <v>2041.410933882586</v>
       </c>
       <c r="AC3" t="n">
-        <v>1525.264865177517</v>
+        <v>1846.581539491071</v>
       </c>
       <c r="AD3" t="n">
-        <v>1232377.111818938</v>
+        <v>1491993.211363536</v>
       </c>
       <c r="AE3" t="n">
-        <v>1686192.733031699</v>
+        <v>2041410.933882586</v>
       </c>
       <c r="AF3" t="n">
         <v>3.452330010759607e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>53</v>
+        <v>52.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>1525264.865177517</v>
+        <v>1846581.539491071</v>
       </c>
     </row>
     <row r="4">
@@ -29111,28 +29111,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1098.50881702474</v>
+        <v>1338.985531411388</v>
       </c>
       <c r="AB4" t="n">
-        <v>1503.028226241924</v>
+        <v>1832.059075949624</v>
       </c>
       <c r="AC4" t="n">
-        <v>1359.581321842759</v>
+        <v>1657.209929052054</v>
       </c>
       <c r="AD4" t="n">
-        <v>1098508.817024739</v>
+        <v>1338985.531411388</v>
       </c>
       <c r="AE4" t="n">
-        <v>1503028.226241924</v>
+        <v>1832059.075949624</v>
       </c>
       <c r="AF4" t="n">
         <v>3.72886717223289e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>49</v>
+        <v>48.59953703703704</v>
       </c>
       <c r="AH4" t="n">
-        <v>1359581.321842759</v>
+        <v>1657209.929052054</v>
       </c>
     </row>
     <row r="5">
@@ -29217,28 +29217,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1029.651094641654</v>
+        <v>1260.507373836086</v>
       </c>
       <c r="AB5" t="n">
-        <v>1408.814052689072</v>
+        <v>1724.681798543134</v>
       </c>
       <c r="AC5" t="n">
-        <v>1274.358816783367</v>
+        <v>1560.080588296283</v>
       </c>
       <c r="AD5" t="n">
-        <v>1029651.094641654</v>
+        <v>1260507.373836086</v>
       </c>
       <c r="AE5" t="n">
-        <v>1408814.052689072</v>
+        <v>1724681.798543134</v>
       </c>
       <c r="AF5" t="n">
         <v>3.874338872690806e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>47</v>
+        <v>46.78240740740741</v>
       </c>
       <c r="AH5" t="n">
-        <v>1274358.816783367</v>
+        <v>1560080.588296284</v>
       </c>
     </row>
     <row r="6">
@@ -29323,28 +29323,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>989.2960503922703</v>
+        <v>1220.118164167922</v>
       </c>
       <c r="AB6" t="n">
-        <v>1353.598500808162</v>
+        <v>1669.419500028977</v>
       </c>
       <c r="AC6" t="n">
-        <v>1224.412959678458</v>
+        <v>1510.092445991195</v>
       </c>
       <c r="AD6" t="n">
-        <v>989296.0503922703</v>
+        <v>1220118.164167922</v>
       </c>
       <c r="AE6" t="n">
-        <v>1353598.500808162</v>
+        <v>1669419.500028977</v>
       </c>
       <c r="AF6" t="n">
         <v>3.950911167119138e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>46</v>
+        <v>45.86805555555556</v>
       </c>
       <c r="AH6" t="n">
-        <v>1224412.959678459</v>
+        <v>1510092.445991195</v>
       </c>
     </row>
     <row r="7">
@@ -29429,28 +29429,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>959.6027221316158</v>
+        <v>1180.771246326126</v>
       </c>
       <c r="AB7" t="n">
-        <v>1312.970779104746</v>
+        <v>1615.583311174328</v>
       </c>
       <c r="AC7" t="n">
-        <v>1187.66269071305</v>
+        <v>1461.394307441268</v>
       </c>
       <c r="AD7" t="n">
-        <v>959602.7221316157</v>
+        <v>1180771.246326126</v>
       </c>
       <c r="AE7" t="n">
-        <v>1312970.779104746</v>
+        <v>1615583.311174328</v>
       </c>
       <c r="AF7" t="n">
         <v>4.018714446234614e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>46</v>
+        <v>45.10416666666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>1187662.69071305</v>
+        <v>1461394.307441268</v>
       </c>
     </row>
     <row r="8">
@@ -29535,28 +29535,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>925.132673641824</v>
+        <v>1146.368517644039</v>
       </c>
       <c r="AB8" t="n">
-        <v>1265.8073380498</v>
+        <v>1568.511980050224</v>
       </c>
       <c r="AC8" t="n">
-        <v>1145.000462278083</v>
+        <v>1418.81539809462</v>
       </c>
       <c r="AD8" t="n">
-        <v>925132.673641824</v>
+        <v>1146368.517644039</v>
       </c>
       <c r="AE8" t="n">
-        <v>1265807.3380498</v>
+        <v>1568511.980050224</v>
       </c>
       <c r="AF8" t="n">
         <v>4.067883567810272e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>45</v>
+        <v>44.54861111111111</v>
       </c>
       <c r="AH8" t="n">
-        <v>1145000.462278083</v>
+        <v>1418815.39809462</v>
       </c>
     </row>
     <row r="9">
@@ -29641,28 +29641,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>922.0141366690439</v>
+        <v>1143.249980671259</v>
       </c>
       <c r="AB9" t="n">
-        <v>1261.5404181835</v>
+        <v>1564.245060183925</v>
       </c>
       <c r="AC9" t="n">
-        <v>1141.140771255164</v>
+        <v>1414.955707071701</v>
       </c>
       <c r="AD9" t="n">
-        <v>922014.1366690439</v>
+        <v>1143249.980671259</v>
       </c>
       <c r="AE9" t="n">
-        <v>1261540.4181835</v>
+        <v>1564245.060183925</v>
       </c>
       <c r="AF9" t="n">
         <v>4.070232411197644e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>45</v>
+        <v>44.52546296296296</v>
       </c>
       <c r="AH9" t="n">
-        <v>1141140.771255164</v>
+        <v>1414955.707071701</v>
       </c>
     </row>
   </sheetData>
@@ -29938,28 +29938,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2251.110187207572</v>
+        <v>2630.691359487743</v>
       </c>
       <c r="AB2" t="n">
-        <v>3080.068270109948</v>
+        <v>3599.42797596316</v>
       </c>
       <c r="AC2" t="n">
-        <v>2786.110877313507</v>
+        <v>3255.903621765994</v>
       </c>
       <c r="AD2" t="n">
-        <v>2251110.187207572</v>
+        <v>2630691.359487743</v>
       </c>
       <c r="AE2" t="n">
-        <v>3080068.270109948</v>
+        <v>3599427.97596316</v>
       </c>
       <c r="AF2" t="n">
         <v>2.144621544779942e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>77</v>
+        <v>76.35416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>2786110.877313506</v>
+        <v>3255903.621765994</v>
       </c>
     </row>
     <row r="3">
@@ -30044,28 +30044,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1462.548509422156</v>
+        <v>1744.766393772728</v>
       </c>
       <c r="AB3" t="n">
-        <v>2001.123393677819</v>
+        <v>2387.266353620611</v>
       </c>
       <c r="AC3" t="n">
-        <v>1810.13898557953</v>
+        <v>2159.42900338043</v>
       </c>
       <c r="AD3" t="n">
-        <v>1462548.509422156</v>
+        <v>1744766.393772728</v>
       </c>
       <c r="AE3" t="n">
-        <v>2001123.393677819</v>
+        <v>2387266.353620611</v>
       </c>
       <c r="AF3" t="n">
         <v>2.915904255118099e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>57</v>
+        <v>56.15740740740741</v>
       </c>
       <c r="AH3" t="n">
-        <v>1810138.98557953</v>
+        <v>2159429.00338043</v>
       </c>
     </row>
     <row r="4">
@@ -30150,28 +30150,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1267.814032622049</v>
+        <v>1530.592413775624</v>
       </c>
       <c r="AB4" t="n">
-        <v>1734.679091441124</v>
+        <v>2094.224065499432</v>
       </c>
       <c r="AC4" t="n">
-        <v>1569.123753591378</v>
+        <v>1894.354259950102</v>
       </c>
       <c r="AD4" t="n">
-        <v>1267814.032622049</v>
+        <v>1530592.413775624</v>
       </c>
       <c r="AE4" t="n">
-        <v>1734679.091441124</v>
+        <v>2094224.065499432</v>
       </c>
       <c r="AF4" t="n">
         <v>3.212899743835728e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>51</v>
+        <v>50.97222222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>1569123.753591378</v>
+        <v>1894354.259950102</v>
       </c>
     </row>
     <row r="5">
@@ -30256,28 +30256,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1184.148186802094</v>
+        <v>1427.522241207311</v>
       </c>
       <c r="AB5" t="n">
-        <v>1620.203790113646</v>
+        <v>1953.198908256372</v>
       </c>
       <c r="AC5" t="n">
-        <v>1465.5738143555</v>
+        <v>1766.788345784268</v>
       </c>
       <c r="AD5" t="n">
-        <v>1184148.186802093</v>
+        <v>1427522.241207311</v>
       </c>
       <c r="AE5" t="n">
-        <v>1620203.790113646</v>
+        <v>1953198.908256372</v>
       </c>
       <c r="AF5" t="n">
         <v>3.371089813576704e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>49</v>
+        <v>48.57638888888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>1465573.814355501</v>
+        <v>1766788.345784268</v>
       </c>
     </row>
     <row r="6">
@@ -30362,28 +30362,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1134.870215596362</v>
+        <v>1368.440621400915</v>
       </c>
       <c r="AB6" t="n">
-        <v>1552.779495919307</v>
+        <v>1872.360829540152</v>
       </c>
       <c r="AC6" t="n">
-        <v>1404.584400168478</v>
+        <v>1693.665339843769</v>
       </c>
       <c r="AD6" t="n">
-        <v>1134870.215596362</v>
+        <v>1368440.621400915</v>
       </c>
       <c r="AE6" t="n">
-        <v>1552779.495919307</v>
+        <v>1872360.829540152</v>
       </c>
       <c r="AF6" t="n">
         <v>3.46829605500072e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>48</v>
+        <v>47.22222222222222</v>
       </c>
       <c r="AH6" t="n">
-        <v>1404584.400168478</v>
+        <v>1693665.339843769</v>
       </c>
     </row>
     <row r="7">
@@ -30468,28 +30468,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1102.854473642964</v>
+        <v>1336.492199255221</v>
       </c>
       <c r="AB7" t="n">
-        <v>1508.974145343817</v>
+        <v>1828.647588895504</v>
       </c>
       <c r="AC7" t="n">
-        <v>1364.959770770717</v>
+        <v>1654.124029534327</v>
       </c>
       <c r="AD7" t="n">
-        <v>1102854.473642964</v>
+        <v>1336492.199255221</v>
       </c>
       <c r="AE7" t="n">
-        <v>1508974.145343817</v>
+        <v>1828647.588895504</v>
       </c>
       <c r="AF7" t="n">
         <v>3.516969922613328e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>47</v>
+        <v>46.5625</v>
       </c>
       <c r="AH7" t="n">
-        <v>1364959.770770717</v>
+        <v>1654124.029534327</v>
       </c>
     </row>
     <row r="8">
@@ -30574,28 +30574,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1063.119460663462</v>
+        <v>1296.723020856939</v>
       </c>
       <c r="AB8" t="n">
-        <v>1454.606947600211</v>
+        <v>1774.23364451865</v>
       </c>
       <c r="AC8" t="n">
-        <v>1315.781302074919</v>
+        <v>1604.903275638349</v>
       </c>
       <c r="AD8" t="n">
-        <v>1063119.460663462</v>
+        <v>1296723.020856939</v>
       </c>
       <c r="AE8" t="n">
-        <v>1454606.947600211</v>
+        <v>1774233.64451865</v>
       </c>
       <c r="AF8" t="n">
         <v>3.583472009177066e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>46</v>
+        <v>45.70601851851853</v>
       </c>
       <c r="AH8" t="n">
-        <v>1315781.302074919</v>
+        <v>1604903.275638349</v>
       </c>
     </row>
     <row r="9">
@@ -30680,28 +30680,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1043.587210364103</v>
+        <v>1267.421287375696</v>
       </c>
       <c r="AB9" t="n">
-        <v>1427.882061038561</v>
+        <v>1734.141720068367</v>
       </c>
       <c r="AC9" t="n">
-        <v>1291.607001178099</v>
+        <v>1568.637668188232</v>
       </c>
       <c r="AD9" t="n">
-        <v>1043587.210364103</v>
+        <v>1267421.287375696</v>
       </c>
       <c r="AE9" t="n">
-        <v>1427882.061038561</v>
+        <v>1734141.720068367</v>
       </c>
       <c r="AF9" t="n">
         <v>3.621533841699716e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>46</v>
+        <v>45.21990740740741</v>
       </c>
       <c r="AH9" t="n">
-        <v>1291607.001178099</v>
+        <v>1568637.668188232</v>
       </c>
     </row>
     <row r="10">
@@ -30786,28 +30786,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1013.677154504373</v>
+        <v>1237.57855132367</v>
       </c>
       <c r="AB10" t="n">
-        <v>1386.957803072741</v>
+        <v>1693.309572033389</v>
       </c>
       <c r="AC10" t="n">
-        <v>1254.58849695498</v>
+        <v>1531.702483053432</v>
       </c>
       <c r="AD10" t="n">
-        <v>1013677.154504373</v>
+        <v>1237578.55132367</v>
       </c>
       <c r="AE10" t="n">
-        <v>1386957.803072741</v>
+        <v>1693309.572033389</v>
       </c>
       <c r="AF10" t="n">
         <v>3.650540070945602e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>45</v>
+        <v>44.86111111111111</v>
       </c>
       <c r="AH10" t="n">
-        <v>1254588.496954981</v>
+        <v>1531702.483053432</v>
       </c>
     </row>
     <row r="11">
@@ -30892,28 +30892,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>993.8518022187299</v>
+        <v>1217.651713811542</v>
       </c>
       <c r="AB11" t="n">
-        <v>1359.83188144271</v>
+        <v>1666.044793839268</v>
       </c>
       <c r="AC11" t="n">
-        <v>1230.051435213849</v>
+        <v>1507.039817023802</v>
       </c>
       <c r="AD11" t="n">
-        <v>993851.8022187299</v>
+        <v>1217651.713811542</v>
       </c>
       <c r="AE11" t="n">
-        <v>1359831.88144271</v>
+        <v>1666044.793839268</v>
       </c>
       <c r="AF11" t="n">
         <v>3.682234682414277e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>45</v>
+        <v>44.47916666666666</v>
       </c>
       <c r="AH11" t="n">
-        <v>1230051.435213849</v>
+        <v>1507039.817023802</v>
       </c>
     </row>
     <row r="12">
@@ -30998,28 +30998,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>988.0885566788709</v>
+        <v>1211.888468271683</v>
       </c>
       <c r="AB12" t="n">
-        <v>1351.946354638626</v>
+        <v>1658.159267035185</v>
       </c>
       <c r="AC12" t="n">
-        <v>1222.918492020541</v>
+        <v>1499.906873830494</v>
       </c>
       <c r="AD12" t="n">
-        <v>988088.5566788709</v>
+        <v>1211888.468271683</v>
       </c>
       <c r="AE12" t="n">
-        <v>1351946.354638626</v>
+        <v>1658159.267035185</v>
       </c>
       <c r="AF12" t="n">
         <v>3.682376176215476e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>45</v>
+        <v>44.4675925925926</v>
       </c>
       <c r="AH12" t="n">
-        <v>1222918.492020541</v>
+        <v>1499906.873830494</v>
       </c>
     </row>
     <row r="13">
@@ -31104,28 +31104,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>989.9143052950785</v>
+        <v>1213.714216887891</v>
       </c>
       <c r="AB13" t="n">
-        <v>1354.444424441666</v>
+        <v>1660.657336838224</v>
       </c>
       <c r="AC13" t="n">
-        <v>1225.178149547642</v>
+        <v>1502.166531357595</v>
       </c>
       <c r="AD13" t="n">
-        <v>989914.3052950785</v>
+        <v>1213714.216887891</v>
       </c>
       <c r="AE13" t="n">
-        <v>1354444.424441666</v>
+        <v>1660657.336838224</v>
       </c>
       <c r="AF13" t="n">
         <v>3.681244225805881e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>45</v>
+        <v>44.49074074074074</v>
       </c>
       <c r="AH13" t="n">
-        <v>1225178.149547642</v>
+        <v>1502166.531357595</v>
       </c>
     </row>
   </sheetData>
@@ -31401,28 +31401,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>725.1949036408597</v>
+        <v>968.9276454622012</v>
       </c>
       <c r="AB2" t="n">
-        <v>992.2436605025969</v>
+        <v>1325.729550592236</v>
       </c>
       <c r="AC2" t="n">
-        <v>897.5453181669524</v>
+        <v>1199.203782956822</v>
       </c>
       <c r="AD2" t="n">
-        <v>725194.9036408598</v>
+        <v>968927.6454622012</v>
       </c>
       <c r="AE2" t="n">
-        <v>992243.6605025969</v>
+        <v>1325729.550592236</v>
       </c>
       <c r="AF2" t="n">
         <v>7.677110649891437e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>52</v>
+        <v>51.74768518518519</v>
       </c>
       <c r="AH2" t="n">
-        <v>897545.3181669523</v>
+        <v>1199203.782956822</v>
       </c>
     </row>
   </sheetData>
@@ -31698,28 +31698,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1238.363855963679</v>
+        <v>1512.112498692115</v>
       </c>
       <c r="AB2" t="n">
-        <v>1694.384060487044</v>
+        <v>2068.93903040586</v>
       </c>
       <c r="AC2" t="n">
-        <v>1532.674423837125</v>
+        <v>1871.482393118091</v>
       </c>
       <c r="AD2" t="n">
-        <v>1238363.855963679</v>
+        <v>1512112.498692115</v>
       </c>
       <c r="AE2" t="n">
-        <v>1694384.060487044</v>
+        <v>2068939.03040586</v>
       </c>
       <c r="AF2" t="n">
         <v>3.792924343592129e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>58</v>
+        <v>57.10648148148149</v>
       </c>
       <c r="AH2" t="n">
-        <v>1532674.423837125</v>
+        <v>1871482.393118091</v>
       </c>
     </row>
     <row r="3">
@@ -31804,28 +31804,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>965.7130122555488</v>
+        <v>1201.655058123146</v>
       </c>
       <c r="AB3" t="n">
-        <v>1321.331147619286</v>
+        <v>1644.157463803764</v>
       </c>
       <c r="AC3" t="n">
-        <v>1195.225157390414</v>
+        <v>1487.241383047825</v>
       </c>
       <c r="AD3" t="n">
-        <v>965713.0122555488</v>
+        <v>1201655.058123146</v>
       </c>
       <c r="AE3" t="n">
-        <v>1321331.147619286</v>
+        <v>1644157.463803764</v>
       </c>
       <c r="AF3" t="n">
         <v>4.481219968998278e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>49</v>
+        <v>48.33333333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>1195225.157390414</v>
+        <v>1487241.383047825</v>
       </c>
     </row>
     <row r="4">
@@ -31910,28 +31910,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>873.7410340664308</v>
+        <v>1100.307291881218</v>
       </c>
       <c r="AB4" t="n">
-        <v>1195.491029543622</v>
+        <v>1505.488978883669</v>
       </c>
       <c r="AC4" t="n">
-        <v>1081.395043566176</v>
+        <v>1361.807223706063</v>
       </c>
       <c r="AD4" t="n">
-        <v>873741.0340664308</v>
+        <v>1100307.291881218</v>
       </c>
       <c r="AE4" t="n">
-        <v>1195491.029543622</v>
+        <v>1505488.978883669</v>
       </c>
       <c r="AF4" t="n">
         <v>4.73030139298294e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>46</v>
+        <v>45.78703703703704</v>
       </c>
       <c r="AH4" t="n">
-        <v>1081395.043566176</v>
+        <v>1361807.223706063</v>
       </c>
     </row>
     <row r="5">
@@ -32016,28 +32016,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>834.6303395481906</v>
+        <v>1061.162431944197</v>
       </c>
       <c r="AB5" t="n">
-        <v>1141.9780518617</v>
+        <v>1451.929254568498</v>
       </c>
       <c r="AC5" t="n">
-        <v>1032.98926936828</v>
+        <v>1313.359164307988</v>
       </c>
       <c r="AD5" t="n">
-        <v>834630.3395481906</v>
+        <v>1061162.431944197</v>
       </c>
       <c r="AE5" t="n">
-        <v>1141978.0518617</v>
+        <v>1451929.254568498</v>
       </c>
       <c r="AF5" t="n">
         <v>4.815823715117418e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>45</v>
+        <v>44.97685185185185</v>
       </c>
       <c r="AH5" t="n">
-        <v>1032989.269368281</v>
+        <v>1313359.164307988</v>
       </c>
     </row>
     <row r="6">
@@ -32122,28 +32122,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>835.8096039504795</v>
+        <v>1062.341696346486</v>
       </c>
       <c r="AB6" t="n">
-        <v>1143.591573442385</v>
+        <v>1453.542776149184</v>
       </c>
       <c r="AC6" t="n">
-        <v>1034.448798713897</v>
+        <v>1314.818693653604</v>
       </c>
       <c r="AD6" t="n">
-        <v>835809.6039504795</v>
+        <v>1062341.696346486</v>
       </c>
       <c r="AE6" t="n">
-        <v>1143591.573442385</v>
+        <v>1453542.776149184</v>
       </c>
       <c r="AF6" t="n">
         <v>4.822560703294313e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>45</v>
+        <v>44.90740740740741</v>
       </c>
       <c r="AH6" t="n">
-        <v>1034448.798713897</v>
+        <v>1314818.693653604</v>
       </c>
     </row>
   </sheetData>
@@ -32419,28 +32419,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1522.097262568974</v>
+        <v>1837.308048633664</v>
       </c>
       <c r="AB2" t="n">
-        <v>2082.600624838873</v>
+        <v>2513.885928451018</v>
       </c>
       <c r="AC2" t="n">
-        <v>1883.840144152585</v>
+        <v>2273.964183700712</v>
       </c>
       <c r="AD2" t="n">
-        <v>1522097.262568974</v>
+        <v>1837308.048633664</v>
       </c>
       <c r="AE2" t="n">
-        <v>2082600.624838873</v>
+        <v>2513885.928451017</v>
       </c>
       <c r="AF2" t="n">
         <v>3.071755028933321e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>63</v>
+        <v>62.78935185185185</v>
       </c>
       <c r="AH2" t="n">
-        <v>1883840.144152585</v>
+        <v>2273964.183700712</v>
       </c>
     </row>
     <row r="3">
@@ -32525,28 +32525,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1122.029101437893</v>
+        <v>1370.423582696289</v>
       </c>
       <c r="AB3" t="n">
-        <v>1535.209717017716</v>
+        <v>1875.074004666562</v>
       </c>
       <c r="AC3" t="n">
-        <v>1388.691456305915</v>
+        <v>1696.119573344079</v>
       </c>
       <c r="AD3" t="n">
-        <v>1122029.101437893</v>
+        <v>1370423.582696289</v>
       </c>
       <c r="AE3" t="n">
-        <v>1535209.717017716</v>
+        <v>1875074.004666562</v>
       </c>
       <c r="AF3" t="n">
         <v>3.796618562396484e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>51</v>
+        <v>50.79861111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>1388691.456305915</v>
+        <v>1696119.573344079</v>
       </c>
     </row>
     <row r="4">
@@ -32631,28 +32631,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1013.285277611374</v>
+        <v>1242.502543163822</v>
       </c>
       <c r="AB4" t="n">
-        <v>1386.421619819352</v>
+        <v>1700.046794900273</v>
       </c>
       <c r="AC4" t="n">
-        <v>1254.103486278757</v>
+        <v>1537.796714825652</v>
       </c>
       <c r="AD4" t="n">
-        <v>1013285.277611374</v>
+        <v>1242502.543163822</v>
       </c>
       <c r="AE4" t="n">
-        <v>1386421.619819352</v>
+        <v>1700046.794900273</v>
       </c>
       <c r="AF4" t="n">
         <v>4.061068775639252e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>48</v>
+        <v>47.48842592592593</v>
       </c>
       <c r="AH4" t="n">
-        <v>1254103.486278757</v>
+        <v>1537796.714825652</v>
       </c>
     </row>
     <row r="5">
@@ -32737,28 +32737,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>949.009078383693</v>
+        <v>1178.259498325064</v>
       </c>
       <c r="AB5" t="n">
-        <v>1298.47608837026</v>
+        <v>1612.146626748774</v>
       </c>
       <c r="AC5" t="n">
-        <v>1174.551352918838</v>
+        <v>1458.285615353872</v>
       </c>
       <c r="AD5" t="n">
-        <v>949009.078383693</v>
+        <v>1178259.498325064</v>
       </c>
       <c r="AE5" t="n">
-        <v>1298476.08837026</v>
+        <v>1612146.626748774</v>
       </c>
       <c r="AF5" t="n">
         <v>4.203208682316051e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>46</v>
+        <v>45.8912037037037</v>
       </c>
       <c r="AH5" t="n">
-        <v>1174551.352918838</v>
+        <v>1458285.615353872</v>
       </c>
     </row>
     <row r="6">
@@ -32843,28 +32843,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>907.259477359951</v>
+        <v>1136.475731882541</v>
       </c>
       <c r="AB6" t="n">
-        <v>1241.352442387171</v>
+        <v>1554.976234132437</v>
       </c>
       <c r="AC6" t="n">
-        <v>1122.879507534834</v>
+        <v>1406.571484769689</v>
       </c>
       <c r="AD6" t="n">
-        <v>907259.477359951</v>
+        <v>1136475.731882541</v>
       </c>
       <c r="AE6" t="n">
-        <v>1241352.442387171</v>
+        <v>1554976.234132438</v>
       </c>
       <c r="AF6" t="n">
         <v>4.286526329840553e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>45</v>
+        <v>44.98842592592592</v>
       </c>
       <c r="AH6" t="n">
-        <v>1122879.507534834</v>
+        <v>1406571.484769689</v>
       </c>
     </row>
     <row r="7">
@@ -32949,28 +32949,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>887.366572776151</v>
+        <v>1107.096210187181</v>
       </c>
       <c r="AB7" t="n">
-        <v>1214.134092722604</v>
+        <v>1514.777876415824</v>
       </c>
       <c r="AC7" t="n">
-        <v>1098.25883896106</v>
+        <v>1370.2096018948</v>
       </c>
       <c r="AD7" t="n">
-        <v>887366.572776151</v>
+        <v>1107096.210187181</v>
       </c>
       <c r="AE7" t="n">
-        <v>1214134.092722605</v>
+        <v>1514777.876415825</v>
       </c>
       <c r="AF7" t="n">
         <v>4.322686188866186e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>45</v>
+        <v>44.61805555555555</v>
       </c>
       <c r="AH7" t="n">
-        <v>1098258.83896106</v>
+        <v>1370209.6018948</v>
       </c>
     </row>
     <row r="8">
@@ -33055,28 +33055,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>889.3869922172057</v>
+        <v>1109.116629628235</v>
       </c>
       <c r="AB8" t="n">
-        <v>1216.898519736471</v>
+        <v>1517.54230342969</v>
       </c>
       <c r="AC8" t="n">
-        <v>1100.75943294062</v>
+        <v>1372.71019587436</v>
       </c>
       <c r="AD8" t="n">
-        <v>889386.9922172057</v>
+        <v>1109116.629628235</v>
       </c>
       <c r="AE8" t="n">
-        <v>1216898.519736471</v>
+        <v>1517542.30342969</v>
       </c>
       <c r="AF8" t="n">
         <v>4.321353106505794e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>45</v>
+        <v>44.62962962962964</v>
       </c>
       <c r="AH8" t="n">
-        <v>1100759.43294062</v>
+        <v>1372710.19587436</v>
       </c>
     </row>
   </sheetData>
